--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>525640.713317189</v>
+        <v>523467.963707636</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25471072.8893989</v>
+        <v>25471072.88939891</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3596793.108753125</v>
+        <v>3596793.108753124</v>
       </c>
     </row>
     <row r="9">
@@ -667,16 +667,16 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>216.0529096554834</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>275.9608187755729</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -721,7 +721,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -755,7 +755,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -819,16 +819,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8173694338329</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>84.02103550306521</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -898,16 +898,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>201.5200168591183</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>326.5808753575631</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>152.9189507365545</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>163.293878347428</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>317.8227870144766</v>
+        <v>378.377352280322</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>18.52611375512792</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>12.40286981025264</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1387,7 +1387,7 @@
         <v>396.2852707095142</v>
       </c>
       <c r="H11" t="n">
-        <v>70.33739424352126</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>57.78140969865706</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>213.0575106034447</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5421930678769</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>358.714219703102</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>83.94344545745747</v>
       </c>
       <c r="H12" t="n">
-        <v>35.64144908035704</v>
+        <v>35.64144908035705</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>61.76122189340693</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>396.2852707095142</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>243.2321985689321</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5421930678769</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>83.94344545745747</v>
       </c>
       <c r="H15" t="n">
-        <v>35.64144908035704</v>
+        <v>35.64144908035705</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>134.1218350502583</v>
       </c>
       <c r="I16" t="n">
-        <v>72.95392402363989</v>
+        <v>72.95392402363973</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>361.3989721952158</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>195.904590483034</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>396.2852707095142</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5421930678769</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1940,7 +1940,7 @@
         <v>83.94344545745747</v>
       </c>
       <c r="H18" t="n">
-        <v>35.64144908035704</v>
+        <v>35.64144908035705</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2095,10 +2095,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>396.2852707095142</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>18.03937635211347</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>213.0575106034447</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.5421930678769</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>323.0595938018919</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>83.94344545745747</v>
       </c>
       <c r="H21" t="n">
-        <v>35.64144908035704</v>
+        <v>35.64144908035705</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>83.94344545745747</v>
       </c>
       <c r="H24" t="n">
-        <v>35.64144908035704</v>
+        <v>35.64144908035705</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2560,10 +2560,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>148.2955435779767</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
@@ -2572,7 +2572,7 @@
         <v>396.2852707095142</v>
       </c>
       <c r="H26" t="n">
-        <v>274.9879964839001</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.78140969865706</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>213.0575106034447</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5421930678769</v>
+        <v>235.6102390233345</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2651,7 +2651,7 @@
         <v>83.94344545745747</v>
       </c>
       <c r="H27" t="n">
-        <v>35.64144908035704</v>
+        <v>35.64144908035705</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.78140969865706</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>256.5421930678769</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>192.1255565589022</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -2860,7 +2860,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>179.5566287580768</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>83.94344545745747</v>
       </c>
       <c r="H30" t="n">
-        <v>35.64144908035704</v>
+        <v>35.64144908035705</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -3034,19 +3034,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>396.2852707095142</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.9879964839001</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>57.78140969865706</v>
       </c>
       <c r="T32" t="n">
-        <v>213.0575106034447</v>
+        <v>180.4963181735944</v>
       </c>
       <c r="U32" t="n">
-        <v>250.3887357364659</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3125,7 +3125,7 @@
         <v>83.94344545745747</v>
       </c>
       <c r="H33" t="n">
-        <v>35.64144908035704</v>
+        <v>35.64144908035705</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>396.2852707095142</v>
+        <v>239.7468446936355</v>
       </c>
       <c r="H35" t="n">
         <v>274.9879964839001</v>
@@ -3322,19 +3322,19 @@
         <v>213.0575106034447</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5421930678769</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>129.5314522898429</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>83.94344545745747</v>
       </c>
       <c r="H36" t="n">
-        <v>35.64144908035704</v>
+        <v>35.64144908035705</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>40.26428369234169</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.2852707095142</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>213.0575106034447</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.5421930678769</v>
@@ -3565,7 +3565,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>197.3882123602047</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>83.94344545745747</v>
       </c>
       <c r="H39" t="n">
-        <v>35.64144908035704</v>
+        <v>35.64144908035705</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3751,10 +3751,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.2852707095142</v>
+        <v>391.8523974301364</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>152.131790533787</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5421930678769</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>83.94344545745747</v>
       </c>
       <c r="H42" t="n">
-        <v>35.64144908035704</v>
+        <v>35.64144908035705</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704927</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>141.2559255981952</v>
+        <v>1.292883295612248</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>396.2852707095142</v>
       </c>
       <c r="H44" t="n">
-        <v>274.9879964839001</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4073,7 +4073,7 @@
         <v>83.94344545745747</v>
       </c>
       <c r="H45" t="n">
-        <v>35.64144908035704</v>
+        <v>35.64144908035705</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1032.922181297967</v>
+        <v>408.8145501306011</v>
       </c>
       <c r="C2" t="n">
-        <v>998.8201125217938</v>
+        <v>374.7124813544285</v>
       </c>
       <c r="D2" t="n">
-        <v>966.9507317366424</v>
+        <v>342.8431005692771</v>
       </c>
       <c r="E2" t="n">
-        <v>748.7154694583763</v>
+        <v>313.1087597679763</v>
       </c>
       <c r="F2" t="n">
-        <v>724.8884439079882</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4330,22 +4330,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4360,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V2" t="n">
-        <v>1075.344177331261</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W2" t="n">
-        <v>1074.529126782698</v>
+        <v>450.4214956153326</v>
       </c>
       <c r="X2" t="n">
-        <v>1059.427067402413</v>
+        <v>435.3194362350473</v>
       </c>
       <c r="Y2" t="n">
-        <v>1055.18134774247</v>
+        <v>431.0737165751048</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4412,19 +4412,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>990.9896325459688</v>
+        <v>766.5367714259833</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>593.9750599092082</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V4" t="n">
-        <v>1410.227921950848</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="W4" t="n">
-        <v>1410.227921950848</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="X4" t="n">
-        <v>1410.227921950848</v>
+        <v>1185.775060830862</v>
       </c>
       <c r="Y4" t="n">
-        <v>1182.808251264956</v>
+        <v>958.3553901449704</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>325.1626763144379</v>
       </c>
       <c r="C5" t="n">
-        <v>822.1393557439874</v>
+        <v>291.0606075382653</v>
       </c>
       <c r="D5" t="n">
-        <v>393.5576814812557</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E5" t="n">
-        <v>363.8233406799549</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F5" t="n">
         <v>33.94366860160834</v>
@@ -4567,19 +4567,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K5" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="L5" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="L5" t="n">
-        <v>874.0494664914149</v>
-      </c>
-      <c r="M5" t="n">
-        <v>874.0494664914149</v>
-      </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O5" t="n">
         <v>874.0494664914149</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>770.8100258395735</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>755.7079664592883</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>751.4622467993457</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>718.8484307043673</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C7" t="n">
-        <v>546.2867191875922</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4087263891149</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
@@ -4752,25 +4752,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U7" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V7" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.478474775834</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X7" t="n">
-        <v>1138.086720109246</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="Y7" t="n">
-        <v>910.6670494233545</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>846.680625966315</v>
+        <v>503.8064494671689</v>
       </c>
       <c r="C8" t="n">
-        <v>812.5785571901424</v>
+        <v>469.7043806909963</v>
       </c>
       <c r="D8" t="n">
-        <v>491.5454389937014</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F8" t="n">
         <v>33.94366860160834</v>
@@ -4804,52 +4804,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
-        <v>1294.102365436318</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
-        <v>1697.183430080417</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P8" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R8" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1353.494203032709</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>1338.392143652423</v>
       </c>
       <c r="Y8" t="n">
-        <v>868.9397924108188</v>
+        <v>930.1060199520767</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,40 +4871,40 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J9" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L9" t="n">
-        <v>778.554892512724</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M9" t="n">
-        <v>857.0776321906106</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N9" t="n">
-        <v>857.0776321906106</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O9" t="n">
-        <v>1277.130531135514</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P9" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q9" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R9" t="n">
         <v>1697.183430080417</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.5714734656729</v>
+        <v>819.25118960439</v>
       </c>
       <c r="C10" t="n">
-        <v>301.0097619488978</v>
+        <v>800.5379433870891</v>
       </c>
       <c r="D10" t="n">
-        <v>135.1317691504205</v>
+        <v>634.6599505886118</v>
       </c>
       <c r="E10" t="n">
-        <v>122.603617826933</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="F10" t="n">
-        <v>122.603617826933</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G10" t="n">
         <v>122.603617826933</v>
@@ -4965,19 +4965,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>91.74450617142992</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>509.954387939391</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P10" t="n">
         <v>1697.183430080417</v>
@@ -4989,25 +4989,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V10" t="n">
-        <v>1410.227921950848</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="W10" t="n">
-        <v>1138.201517537139</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="X10" t="n">
-        <v>892.8097628705518</v>
+        <v>1046.670860290282</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.39009218466</v>
+        <v>819.25118960439</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1829.204369208832</v>
+        <v>1758.156496235579</v>
       </c>
       <c r="C11" t="n">
-        <v>1829.204369208832</v>
+        <v>1758.156496235579</v>
       </c>
       <c r="D11" t="n">
-        <v>1393.294584383277</v>
+        <v>1322.246711410023</v>
       </c>
       <c r="E11" t="n">
-        <v>959.5198395415719</v>
+        <v>888.4719665683181</v>
       </c>
       <c r="F11" t="n">
-        <v>531.6524099507797</v>
+        <v>460.6045369775259</v>
       </c>
       <c r="G11" t="n">
-        <v>131.364257718947</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="H11" t="n">
         <v>60.31638474569324</v>
@@ -5044,22 +5044,22 @@
         <v>629.4005381353032</v>
       </c>
       <c r="K11" t="n">
-        <v>767.7468952281081</v>
+        <v>1375.815799363257</v>
       </c>
       <c r="L11" t="n">
-        <v>939.3777846234506</v>
+        <v>1936.217724900679</v>
       </c>
       <c r="M11" t="n">
-        <v>1130.350218807757</v>
+        <v>2127.190159084986</v>
       </c>
       <c r="N11" t="n">
-        <v>1324.412786632698</v>
+        <v>2321.252726909927</v>
       </c>
       <c r="O11" t="n">
-        <v>1507.660566463248</v>
+        <v>2504.500506740477</v>
       </c>
       <c r="P11" t="n">
-        <v>2114.399461280033</v>
+        <v>2660.898247238628</v>
       </c>
       <c r="Q11" t="n">
         <v>2778.346437009021</v>
@@ -5068,25 +5068,25 @@
         <v>3015.819237284662</v>
       </c>
       <c r="S11" t="n">
-        <v>3015.819237284662</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="T11" t="n">
-        <v>3015.819237284662</v>
+        <v>2742.244570312842</v>
       </c>
       <c r="U11" t="n">
-        <v>3015.819237284662</v>
+        <v>2483.111041961451</v>
       </c>
       <c r="V11" t="n">
-        <v>2653.202287218488</v>
+        <v>2120.494091895278</v>
       </c>
       <c r="W11" t="n">
-        <v>2248.346832629521</v>
+        <v>1758.156496235579</v>
       </c>
       <c r="X11" t="n">
-        <v>1829.204369208832</v>
+        <v>1758.156496235579</v>
       </c>
       <c r="Y11" t="n">
-        <v>1829.204369208832</v>
+        <v>1758.156496235579</v>
       </c>
     </row>
     <row r="12">
@@ -5102,46 +5102,46 @@
         <v>453.7037494214939</v>
       </c>
       <c r="D12" t="n">
-        <v>358.6134605680471</v>
+        <v>358.6134605680472</v>
       </c>
       <c r="E12" t="n">
-        <v>264.4930458950008</v>
+        <v>264.4930458950009</v>
       </c>
       <c r="F12" t="n">
         <v>181.1092075111625</v>
       </c>
       <c r="G12" t="n">
-        <v>96.3178484632256</v>
+        <v>96.31784846322562</v>
       </c>
       <c r="H12" t="n">
         <v>60.31638474569324</v>
       </c>
       <c r="I12" t="n">
-        <v>80.35163143454288</v>
+        <v>106.4153045950005</v>
       </c>
       <c r="J12" t="n">
-        <v>135.3298797051811</v>
+        <v>485.951877831851</v>
       </c>
       <c r="K12" t="n">
-        <v>283.3489017778863</v>
+        <v>579.9184609329182</v>
       </c>
       <c r="L12" t="n">
-        <v>409.6985689538738</v>
+        <v>706.2681281089056</v>
       </c>
       <c r="M12" t="n">
-        <v>557.1426710194589</v>
+        <v>853.7122301744907</v>
       </c>
       <c r="N12" t="n">
-        <v>708.4891797331017</v>
+        <v>1005.058738888133</v>
       </c>
       <c r="O12" t="n">
-        <v>846.941667265589</v>
+        <v>1143.511226420621</v>
       </c>
       <c r="P12" t="n">
-        <v>1593.356928493543</v>
+        <v>1254.631553852358</v>
       </c>
       <c r="Q12" t="n">
-        <v>1667.637924625043</v>
+        <v>1550.465146530704</v>
       </c>
       <c r="R12" t="n">
         <v>1703.767727443815</v>
@@ -5178,46 +5178,46 @@
         <v>1119.482091368267</v>
       </c>
       <c r="C13" t="n">
-        <v>946.9203798514917</v>
+        <v>946.9203798514923</v>
       </c>
       <c r="D13" t="n">
-        <v>781.0423870530144</v>
+        <v>781.0423870530149</v>
       </c>
       <c r="E13" t="n">
-        <v>611.2843833037516</v>
+        <v>611.2843833037518</v>
       </c>
       <c r="F13" t="n">
-        <v>434.5773292655078</v>
+        <v>434.5773292655081</v>
       </c>
       <c r="G13" t="n">
-        <v>269.4838181536702</v>
+        <v>269.4838181536711</v>
       </c>
       <c r="H13" t="n">
-        <v>134.0072170928033</v>
+        <v>134.0072170928041</v>
       </c>
       <c r="I13" t="n">
         <v>60.31638474569324</v>
       </c>
       <c r="J13" t="n">
-        <v>94.80797090192894</v>
+        <v>94.80797090192893</v>
       </c>
       <c r="K13" t="n">
-        <v>367.0803061521826</v>
+        <v>426.2466969243557</v>
       </c>
       <c r="L13" t="n">
-        <v>857.8214210433375</v>
+        <v>916.9878118155106</v>
       </c>
       <c r="M13" t="n">
-        <v>1393.77930392336</v>
+        <v>1452.945694695533</v>
       </c>
       <c r="N13" t="n">
-        <v>1910.693741614618</v>
+        <v>1969.860132386791</v>
       </c>
       <c r="O13" t="n">
-        <v>2399.319552696791</v>
+        <v>2458.485943468963</v>
       </c>
       <c r="P13" t="n">
-        <v>2805.830697949447</v>
+        <v>2864.99708872162</v>
       </c>
       <c r="Q13" t="n">
         <v>3014.874957973235</v>
@@ -5238,13 +5238,13 @@
         <v>2056.138539853442</v>
       </c>
       <c r="W13" t="n">
-        <v>1784.112135439733</v>
+        <v>1784.112135439734</v>
       </c>
       <c r="X13" t="n">
         <v>1538.720380773146</v>
       </c>
       <c r="Y13" t="n">
-        <v>1311.300710087254</v>
+        <v>1311.300710087255</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1570.070840857441</v>
+        <v>994.6186750235778</v>
       </c>
       <c r="C14" t="n">
-        <v>1570.070840857441</v>
+        <v>556.4762022070011</v>
       </c>
       <c r="D14" t="n">
-        <v>1134.161056031886</v>
+        <v>494.0911295873981</v>
       </c>
       <c r="E14" t="n">
-        <v>1134.161056031886</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="F14" t="n">
-        <v>706.2936264410937</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="G14" t="n">
-        <v>306.0054742092611</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="H14" t="n">
         <v>60.31638474569324</v>
@@ -5278,28 +5278,28 @@
         <v>101.837454701092</v>
       </c>
       <c r="J14" t="n">
-        <v>194.1458506823854</v>
+        <v>629.4005381353032</v>
       </c>
       <c r="K14" t="n">
-        <v>940.5611119103392</v>
+        <v>767.746895228108</v>
       </c>
       <c r="L14" t="n">
-        <v>1112.192001305682</v>
+        <v>939.3777846234505</v>
       </c>
       <c r="M14" t="n">
-        <v>1303.164435489988</v>
+        <v>1130.350218807757</v>
       </c>
       <c r="N14" t="n">
-        <v>1497.22700331493</v>
+        <v>1324.412786632698</v>
       </c>
       <c r="O14" t="n">
-        <v>2243.642264542883</v>
+        <v>1507.660566463248</v>
       </c>
       <c r="P14" t="n">
-        <v>2830.052311991685</v>
+        <v>2114.399461280034</v>
       </c>
       <c r="Q14" t="n">
-        <v>2947.500501762078</v>
+        <v>2778.346437009021</v>
       </c>
       <c r="R14" t="n">
         <v>3015.819237284662</v>
@@ -5311,19 +5311,19 @@
         <v>3015.819237284662</v>
       </c>
       <c r="U14" t="n">
-        <v>2756.685708933271</v>
+        <v>3015.819237284662</v>
       </c>
       <c r="V14" t="n">
-        <v>2394.068758867098</v>
+        <v>2653.202287218488</v>
       </c>
       <c r="W14" t="n">
-        <v>1989.213304278131</v>
+        <v>2248.346832629521</v>
       </c>
       <c r="X14" t="n">
-        <v>1570.070840857441</v>
+        <v>1829.204369208832</v>
       </c>
       <c r="Y14" t="n">
-        <v>1570.070840857441</v>
+        <v>1420.918245508486</v>
       </c>
     </row>
     <row r="15">
@@ -5339,16 +5339,16 @@
         <v>453.7037494214939</v>
       </c>
       <c r="D15" t="n">
-        <v>358.6134605680471</v>
+        <v>358.6134605680472</v>
       </c>
       <c r="E15" t="n">
-        <v>264.4930458950008</v>
+        <v>264.4930458950009</v>
       </c>
       <c r="F15" t="n">
         <v>181.1092075111625</v>
       </c>
       <c r="G15" t="n">
-        <v>96.3178484632256</v>
+        <v>96.31784846322562</v>
       </c>
       <c r="H15" t="n">
         <v>60.31638474569324</v>
@@ -5360,22 +5360,22 @@
         <v>485.951877831851</v>
       </c>
       <c r="K15" t="n">
-        <v>579.9184609329183</v>
+        <v>801.4710574797637</v>
       </c>
       <c r="L15" t="n">
-        <v>706.2681281089057</v>
+        <v>927.8207246557511</v>
       </c>
       <c r="M15" t="n">
-        <v>853.7122301744909</v>
+        <v>1075.264826721336</v>
       </c>
       <c r="N15" t="n">
-        <v>1005.058738888133</v>
+        <v>1226.611335434979</v>
       </c>
       <c r="O15" t="n">
-        <v>1143.511226420621</v>
+        <v>1365.063822967466</v>
       </c>
       <c r="P15" t="n">
-        <v>1254.631553852358</v>
+        <v>1476.184150399203</v>
       </c>
       <c r="Q15" t="n">
         <v>1550.465146530704</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1119.482091368268</v>
+        <v>1119.482091368267</v>
       </c>
       <c r="C16" t="n">
-        <v>946.9203798514926</v>
+        <v>946.9203798514923</v>
       </c>
       <c r="D16" t="n">
-        <v>781.0423870530153</v>
+        <v>781.0423870530149</v>
       </c>
       <c r="E16" t="n">
-        <v>611.2843833037525</v>
+        <v>611.2843833037523</v>
       </c>
       <c r="F16" t="n">
-        <v>434.5773292655088</v>
+        <v>434.5773292655086</v>
       </c>
       <c r="G16" t="n">
-        <v>269.4838181536712</v>
+        <v>269.4838181536711</v>
       </c>
       <c r="H16" t="n">
-        <v>134.0072170928042</v>
+        <v>134.0072170928041</v>
       </c>
       <c r="I16" t="n">
         <v>60.31638474569324</v>
       </c>
       <c r="J16" t="n">
-        <v>94.80797090192894</v>
+        <v>181.3876560666188</v>
       </c>
       <c r="K16" t="n">
-        <v>426.2466969243558</v>
+        <v>512.8263820890456</v>
       </c>
       <c r="L16" t="n">
-        <v>916.9878118155107</v>
+        <v>1003.567496980201</v>
       </c>
       <c r="M16" t="n">
-        <v>1452.945694695533</v>
+        <v>1539.525379860223</v>
       </c>
       <c r="N16" t="n">
-        <v>1969.860132386792</v>
+        <v>2056.439817551482</v>
       </c>
       <c r="O16" t="n">
-        <v>2458.485943468964</v>
+        <v>2545.065628633654</v>
       </c>
       <c r="P16" t="n">
-        <v>2864.99708872162</v>
+        <v>2951.57677388631</v>
       </c>
       <c r="Q16" t="n">
         <v>3014.874957973235</v>
@@ -5472,13 +5472,13 @@
         <v>2343.094047983012</v>
       </c>
       <c r="V16" t="n">
-        <v>2056.138539853443</v>
+        <v>2056.138539853442</v>
       </c>
       <c r="W16" t="n">
         <v>1784.112135439734</v>
       </c>
       <c r="X16" t="n">
-        <v>1538.720380773147</v>
+        <v>1538.720380773146</v>
       </c>
       <c r="Y16" t="n">
         <v>1311.300710087255</v>
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>936.2536147219038</v>
+        <v>738.3701899915663</v>
       </c>
       <c r="C17" t="n">
-        <v>936.2536147219038</v>
+        <v>738.3701899915663</v>
       </c>
       <c r="D17" t="n">
-        <v>936.2536147219038</v>
+        <v>738.3701899915663</v>
       </c>
       <c r="E17" t="n">
-        <v>936.2536147219038</v>
+        <v>738.3701899915663</v>
       </c>
       <c r="F17" t="n">
         <v>738.3701899915663</v>
@@ -5518,22 +5518,22 @@
         <v>629.4005381353032</v>
       </c>
       <c r="K17" t="n">
-        <v>767.7468952281081</v>
+        <v>767.746895228108</v>
       </c>
       <c r="L17" t="n">
-        <v>939.3777846234506</v>
+        <v>1380.774897857032</v>
       </c>
       <c r="M17" t="n">
-        <v>1130.350218807757</v>
+        <v>2127.190159084986</v>
       </c>
       <c r="N17" t="n">
-        <v>1324.412786632698</v>
+        <v>2321.252726909927</v>
       </c>
       <c r="O17" t="n">
-        <v>1507.660566463248</v>
+        <v>2504.500506740477</v>
       </c>
       <c r="P17" t="n">
-        <v>2114.399461280033</v>
+        <v>2660.898247238628</v>
       </c>
       <c r="Q17" t="n">
         <v>2778.346437009021</v>
@@ -5548,19 +5548,19 @@
         <v>2957.454176982988</v>
       </c>
       <c r="U17" t="n">
-        <v>2957.454176982988</v>
+        <v>2698.320648631597</v>
       </c>
       <c r="V17" t="n">
-        <v>2594.837226916814</v>
+        <v>2335.703698565424</v>
       </c>
       <c r="W17" t="n">
-        <v>2189.981772327847</v>
+        <v>1930.848243976457</v>
       </c>
       <c r="X17" t="n">
-        <v>1770.839308907158</v>
+        <v>1511.705780555767</v>
       </c>
       <c r="Y17" t="n">
-        <v>1362.553185206812</v>
+        <v>1103.419656855421</v>
       </c>
     </row>
     <row r="18">
@@ -5576,16 +5576,16 @@
         <v>453.7037494214939</v>
       </c>
       <c r="D18" t="n">
-        <v>358.6134605680471</v>
+        <v>358.6134605680472</v>
       </c>
       <c r="E18" t="n">
-        <v>264.4930458950008</v>
+        <v>264.4930458950009</v>
       </c>
       <c r="F18" t="n">
         <v>181.1092075111625</v>
       </c>
       <c r="G18" t="n">
-        <v>96.3178484632256</v>
+        <v>96.31784846322562</v>
       </c>
       <c r="H18" t="n">
         <v>60.31638474569324</v>
@@ -5594,28 +5594,28 @@
         <v>106.4153045950005</v>
       </c>
       <c r="J18" t="n">
-        <v>485.951877831851</v>
+        <v>172.2285743461495</v>
       </c>
       <c r="K18" t="n">
-        <v>579.9184609329183</v>
+        <v>918.6438355741033</v>
       </c>
       <c r="L18" t="n">
-        <v>706.2681281089057</v>
+        <v>1044.993502750091</v>
       </c>
       <c r="M18" t="n">
-        <v>853.7122301744909</v>
+        <v>1192.437604815676</v>
       </c>
       <c r="N18" t="n">
-        <v>1005.058738888133</v>
+        <v>1343.784113529318</v>
       </c>
       <c r="O18" t="n">
-        <v>1143.511226420621</v>
+        <v>1482.236601061806</v>
       </c>
       <c r="P18" t="n">
-        <v>1254.631553852358</v>
+        <v>1593.356928493543</v>
       </c>
       <c r="Q18" t="n">
-        <v>1550.465146530704</v>
+        <v>1667.637924625043</v>
       </c>
       <c r="R18" t="n">
         <v>1703.767727443815</v>
@@ -5652,40 +5652,40 @@
         <v>1119.482091368267</v>
       </c>
       <c r="C19" t="n">
-        <v>946.9203798514919</v>
+        <v>946.9203798514923</v>
       </c>
       <c r="D19" t="n">
-        <v>781.0423870530146</v>
+        <v>781.0423870530149</v>
       </c>
       <c r="E19" t="n">
-        <v>611.284383303752</v>
+        <v>611.2843833037518</v>
       </c>
       <c r="F19" t="n">
-        <v>434.5773292655082</v>
+        <v>434.5773292655081</v>
       </c>
       <c r="G19" t="n">
-        <v>269.4838181536707</v>
+        <v>269.4838181536703</v>
       </c>
       <c r="H19" t="n">
-        <v>134.0072170928041</v>
+        <v>134.0072170928033</v>
       </c>
       <c r="I19" t="n">
         <v>60.31638474569324</v>
       </c>
       <c r="J19" t="n">
-        <v>94.80797090192894</v>
+        <v>181.3876560666188</v>
       </c>
       <c r="K19" t="n">
-        <v>367.0803061521826</v>
+        <v>512.8263820890456</v>
       </c>
       <c r="L19" t="n">
-        <v>857.8214210433375</v>
+        <v>1003.567496980201</v>
       </c>
       <c r="M19" t="n">
         <v>1393.77930392336</v>
       </c>
       <c r="N19" t="n">
-        <v>1910.693741614618</v>
+        <v>1910.693741614619</v>
       </c>
       <c r="O19" t="n">
         <v>2399.319552696791</v>
@@ -5712,13 +5712,13 @@
         <v>2056.138539853442</v>
       </c>
       <c r="W19" t="n">
-        <v>1784.112135439733</v>
+        <v>1784.112135439734</v>
       </c>
       <c r="X19" t="n">
         <v>1538.720380773146</v>
       </c>
       <c r="Y19" t="n">
-        <v>1311.300710087254</v>
+        <v>1311.300710087255</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1776.378088510441</v>
+        <v>1796.010816820323</v>
       </c>
       <c r="C20" t="n">
-        <v>1776.378088510441</v>
+        <v>1357.868344003746</v>
       </c>
       <c r="D20" t="n">
-        <v>1340.468303684885</v>
+        <v>921.9585591781904</v>
       </c>
       <c r="E20" t="n">
-        <v>906.6935588431802</v>
+        <v>488.1838143364855</v>
       </c>
       <c r="F20" t="n">
-        <v>478.8261292523879</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="G20" t="n">
-        <v>78.53797702055533</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="H20" t="n">
         <v>60.31638474569324</v>
@@ -5755,10 +5755,10 @@
         <v>629.4005381353032</v>
       </c>
       <c r="K20" t="n">
-        <v>767.7468952281081</v>
+        <v>767.746895228108</v>
       </c>
       <c r="L20" t="n">
-        <v>939.3777846234506</v>
+        <v>939.3777846234505</v>
       </c>
       <c r="M20" t="n">
         <v>1130.350218807757</v>
@@ -5770,7 +5770,7 @@
         <v>1507.660566463248</v>
       </c>
       <c r="P20" t="n">
-        <v>2114.399461280033</v>
+        <v>2114.399461280034</v>
       </c>
       <c r="Q20" t="n">
         <v>2778.346437009021</v>
@@ -5782,22 +5782,22 @@
         <v>3015.819237284662</v>
       </c>
       <c r="T20" t="n">
-        <v>3015.819237284662</v>
+        <v>2800.609630614516</v>
       </c>
       <c r="U20" t="n">
-        <v>3015.819237284662</v>
+        <v>2541.476102263125</v>
       </c>
       <c r="V20" t="n">
-        <v>3015.819237284662</v>
+        <v>2215.153280241012</v>
       </c>
       <c r="W20" t="n">
-        <v>2610.963782695695</v>
+        <v>2215.153280241012</v>
       </c>
       <c r="X20" t="n">
-        <v>2610.963782695695</v>
+        <v>1796.010816820323</v>
       </c>
       <c r="Y20" t="n">
-        <v>2202.677658995348</v>
+        <v>1796.010816820323</v>
       </c>
     </row>
     <row r="21">
@@ -5813,16 +5813,16 @@
         <v>453.7037494214939</v>
       </c>
       <c r="D21" t="n">
-        <v>358.6134605680471</v>
+        <v>358.6134605680472</v>
       </c>
       <c r="E21" t="n">
-        <v>264.4930458950008</v>
+        <v>264.4930458950009</v>
       </c>
       <c r="F21" t="n">
         <v>181.1092075111625</v>
       </c>
       <c r="G21" t="n">
-        <v>96.3178484632256</v>
+        <v>96.31784846322562</v>
       </c>
       <c r="H21" t="n">
         <v>60.31638474569324</v>
@@ -5831,28 +5831,28 @@
         <v>106.4153045950005</v>
       </c>
       <c r="J21" t="n">
-        <v>283.9383138409604</v>
+        <v>485.951877831851</v>
       </c>
       <c r="K21" t="n">
-        <v>377.9048969420275</v>
+        <v>579.9184609329182</v>
       </c>
       <c r="L21" t="n">
-        <v>504.254564118015</v>
+        <v>706.2681281089056</v>
       </c>
       <c r="M21" t="n">
-        <v>651.6986661836002</v>
+        <v>853.7122301744907</v>
       </c>
       <c r="N21" t="n">
-        <v>803.0451748972428</v>
+        <v>1005.058738888133</v>
       </c>
       <c r="O21" t="n">
-        <v>941.4976624297302</v>
+        <v>1143.511226420621</v>
       </c>
       <c r="P21" t="n">
-        <v>1052.617989861467</v>
+        <v>1254.631553852358</v>
       </c>
       <c r="Q21" t="n">
-        <v>1667.637924625043</v>
+        <v>1550.465146530704</v>
       </c>
       <c r="R21" t="n">
         <v>1703.767727443815</v>
@@ -5889,46 +5889,46 @@
         <v>1119.482091368267</v>
       </c>
       <c r="C22" t="n">
-        <v>946.9203798514924</v>
+        <v>946.9203798514923</v>
       </c>
       <c r="D22" t="n">
-        <v>781.0423870530151</v>
+        <v>781.0423870530149</v>
       </c>
       <c r="E22" t="n">
-        <v>611.2843833037524</v>
+        <v>611.2843833037518</v>
       </c>
       <c r="F22" t="n">
-        <v>434.5773292655086</v>
+        <v>434.5773292655081</v>
       </c>
       <c r="G22" t="n">
-        <v>269.4838181536711</v>
+        <v>269.4838181536702</v>
       </c>
       <c r="H22" t="n">
-        <v>134.0072170928041</v>
+        <v>134.0072170928033</v>
       </c>
       <c r="I22" t="n">
         <v>60.31638474569324</v>
       </c>
       <c r="J22" t="n">
-        <v>94.80797090192894</v>
+        <v>181.3876560666188</v>
       </c>
       <c r="K22" t="n">
-        <v>426.2466969243558</v>
+        <v>512.8263820890456</v>
       </c>
       <c r="L22" t="n">
-        <v>916.9878118155107</v>
+        <v>1003.567496980201</v>
       </c>
       <c r="M22" t="n">
-        <v>1452.945694695533</v>
+        <v>1539.525379860223</v>
       </c>
       <c r="N22" t="n">
-        <v>1969.860132386792</v>
+        <v>2056.439817551482</v>
       </c>
       <c r="O22" t="n">
-        <v>2458.485943468964</v>
+        <v>2545.065628633654</v>
       </c>
       <c r="P22" t="n">
-        <v>2864.99708872162</v>
+        <v>2951.57677388631</v>
       </c>
       <c r="Q22" t="n">
         <v>3014.874957973235</v>
@@ -5943,10 +5943,10 @@
         <v>2621.499897973779</v>
       </c>
       <c r="U22" t="n">
-        <v>2343.094047983012</v>
+        <v>2343.094047983011</v>
       </c>
       <c r="V22" t="n">
-        <v>2056.138539853443</v>
+        <v>2056.138539853442</v>
       </c>
       <c r="W22" t="n">
         <v>1784.112135439734</v>
@@ -5980,7 +5980,7 @@
         <v>779.4345602439316</v>
       </c>
       <c r="G23" t="n">
-        <v>379.1464080120976</v>
+        <v>379.1464080120986</v>
       </c>
       <c r="H23" t="n">
         <v>101.3807549980571</v>
@@ -5995,13 +5995,13 @@
         <v>1643.16155743865</v>
       </c>
       <c r="L23" t="n">
-        <v>2614.627576726883</v>
+        <v>1814.792446833992</v>
       </c>
       <c r="M23" t="n">
-        <v>2805.600010911189</v>
+        <v>2005.764881018299</v>
       </c>
       <c r="N23" t="n">
-        <v>2999.66257873613</v>
+        <v>2199.82744884324</v>
       </c>
       <c r="O23" t="n">
         <v>3182.91035856668</v>
@@ -6077,7 +6077,7 @@
         <v>747.3324983612695</v>
       </c>
       <c r="M24" t="n">
-        <v>894.7766004268548</v>
+        <v>894.7766004268547</v>
       </c>
       <c r="N24" t="n">
         <v>1046.123109140497</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1780.546286904613</v>
+        <v>2222.67168519624</v>
       </c>
       <c r="C26" t="n">
-        <v>1342.403814088036</v>
+        <v>1784.529212379663</v>
       </c>
       <c r="D26" t="n">
-        <v>1192.610335726444</v>
+        <v>1348.619427554108</v>
       </c>
       <c r="E26" t="n">
-        <v>1192.610335726444</v>
+        <v>914.844682712403</v>
       </c>
       <c r="F26" t="n">
-        <v>764.7429061356513</v>
+        <v>486.9772531216108</v>
       </c>
       <c r="G26" t="n">
-        <v>364.4547539038186</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="H26" t="n">
         <v>86.68910088977815</v>
@@ -6226,25 +6226,25 @@
         <v>128.2101708451769</v>
       </c>
       <c r="J26" t="n">
-        <v>655.7732542793882</v>
+        <v>220.5185668264702</v>
       </c>
       <c r="K26" t="n">
-        <v>1628.469903330371</v>
+        <v>1193.215215877453</v>
       </c>
       <c r="L26" t="n">
-        <v>1880.044871312934</v>
+        <v>1364.846105272796</v>
       </c>
       <c r="M26" t="n">
-        <v>2071.017305497241</v>
+        <v>1555.818539457102</v>
       </c>
       <c r="N26" t="n">
-        <v>2265.079873322182</v>
+        <v>1922.048815600322</v>
       </c>
       <c r="O26" t="n">
-        <v>2448.327653152732</v>
+        <v>2994.826439111327</v>
       </c>
       <c r="P26" t="n">
-        <v>3433.03526848428</v>
+        <v>3979.534054442874</v>
       </c>
       <c r="Q26" t="n">
         <v>4096.982244213267</v>
@@ -6253,25 +6253,25 @@
         <v>4334.455044488907</v>
       </c>
       <c r="S26" t="n">
-        <v>4276.089984187233</v>
+        <v>4334.455044488907</v>
       </c>
       <c r="T26" t="n">
-        <v>4060.880377517087</v>
+        <v>4119.245437818761</v>
       </c>
       <c r="U26" t="n">
-        <v>3801.746849165696</v>
+        <v>3881.255297391151</v>
       </c>
       <c r="V26" t="n">
-        <v>3439.129899099523</v>
+        <v>3881.255297391151</v>
       </c>
       <c r="W26" t="n">
-        <v>3034.274444510556</v>
+        <v>3476.399842802184</v>
       </c>
       <c r="X26" t="n">
-        <v>2615.131981089867</v>
+        <v>3057.257379381495</v>
       </c>
       <c r="Y26" t="n">
-        <v>2206.84585738952</v>
+        <v>2648.971255681148</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>586.5329267289364</v>
+        <v>586.5329267289366</v>
       </c>
       <c r="C27" t="n">
         <v>480.0764655655788</v>
       </c>
       <c r="D27" t="n">
-        <v>384.986176712132</v>
+        <v>384.9861767121321</v>
       </c>
       <c r="E27" t="n">
-        <v>290.8657620390857</v>
+        <v>290.8657620390858</v>
       </c>
       <c r="F27" t="n">
         <v>207.4819236552474</v>
@@ -6308,22 +6308,22 @@
         <v>512.324593975936</v>
       </c>
       <c r="K27" t="n">
-        <v>827.8437736238484</v>
+        <v>606.291177077003</v>
       </c>
       <c r="L27" t="n">
-        <v>954.1934407998359</v>
+        <v>732.6408442529904</v>
       </c>
       <c r="M27" t="n">
-        <v>1101.637542865421</v>
+        <v>880.0849463185756</v>
       </c>
       <c r="N27" t="n">
-        <v>1252.984051579064</v>
+        <v>1031.431455032218</v>
       </c>
       <c r="O27" t="n">
-        <v>1391.436539111551</v>
+        <v>1169.883942564706</v>
       </c>
       <c r="P27" t="n">
-        <v>1502.556866543288</v>
+        <v>1281.004269996443</v>
       </c>
       <c r="Q27" t="n">
         <v>1576.837862674789</v>
@@ -6347,10 +6347,10 @@
         <v>989.1900427905989</v>
       </c>
       <c r="X27" t="n">
-        <v>834.3226070294788</v>
+        <v>834.3226070294789</v>
       </c>
       <c r="Y27" t="n">
-        <v>707.8368278086996</v>
+        <v>707.8368278086997</v>
       </c>
     </row>
     <row r="28">
@@ -6387,10 +6387,10 @@
         <v>121.1806870460138</v>
       </c>
       <c r="K28" t="n">
-        <v>452.6194130684407</v>
+        <v>452.6194130684406</v>
       </c>
       <c r="L28" t="n">
-        <v>943.3605279595956</v>
+        <v>943.3605279595954</v>
       </c>
       <c r="M28" t="n">
         <v>1479.318410839618</v>
@@ -6463,49 +6463,49 @@
         <v>128.2101708451769</v>
       </c>
       <c r="J29" t="n">
-        <v>220.5185668264703</v>
+        <v>220.5185668264702</v>
       </c>
       <c r="K29" t="n">
-        <v>358.8649239192751</v>
+        <v>1193.215215877453</v>
       </c>
       <c r="L29" t="n">
-        <v>990.5150276324784</v>
+        <v>2265.992839388457</v>
       </c>
       <c r="M29" t="n">
-        <v>1181.487461816785</v>
+        <v>2456.965273572764</v>
       </c>
       <c r="N29" t="n">
-        <v>1375.550029641726</v>
+        <v>3529.742897083769</v>
       </c>
       <c r="O29" t="n">
-        <v>2448.327653152731</v>
+        <v>3992.29037869778</v>
       </c>
       <c r="P29" t="n">
-        <v>3433.035268484278</v>
+        <v>4148.688119195931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4096.982244213266</v>
+        <v>4266.136308966324</v>
       </c>
       <c r="R29" t="n">
         <v>4334.455044488907</v>
       </c>
       <c r="S29" t="n">
-        <v>4276.089984187233</v>
+        <v>4334.455044488907</v>
       </c>
       <c r="T29" t="n">
-        <v>4276.089984187233</v>
+        <v>4334.455044488907</v>
       </c>
       <c r="U29" t="n">
-        <v>4016.956455835842</v>
+        <v>4075.321516137516</v>
       </c>
       <c r="V29" t="n">
-        <v>3654.339505769669</v>
+        <v>3881.255297391151</v>
       </c>
       <c r="W29" t="n">
-        <v>3249.484051180702</v>
+        <v>3476.399842802184</v>
       </c>
       <c r="X29" t="n">
-        <v>2830.341587760013</v>
+        <v>3057.257379381495</v>
       </c>
       <c r="Y29" t="n">
         <v>2648.971255681148</v>
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>586.5329267289364</v>
+        <v>586.5329267289366</v>
       </c>
       <c r="C30" t="n">
         <v>480.0764655655788</v>
       </c>
       <c r="D30" t="n">
-        <v>384.986176712132</v>
+        <v>384.9861767121321</v>
       </c>
       <c r="E30" t="n">
-        <v>290.8657620390857</v>
+        <v>290.8657620390858</v>
       </c>
       <c r="F30" t="n">
         <v>207.4819236552474</v>
@@ -6539,31 +6539,31 @@
         <v>86.68910088977815</v>
       </c>
       <c r="I30" t="n">
-        <v>106.7243475786278</v>
+        <v>132.7880207390854</v>
       </c>
       <c r="J30" t="n">
-        <v>161.702595849266</v>
+        <v>512.324593975936</v>
       </c>
       <c r="K30" t="n">
-        <v>255.6691789503332</v>
+        <v>606.291177077003</v>
       </c>
       <c r="L30" t="n">
-        <v>382.0188461263206</v>
+        <v>732.6408442529904</v>
       </c>
       <c r="M30" t="n">
-        <v>1218.810320959761</v>
+        <v>880.0849463185756</v>
       </c>
       <c r="N30" t="n">
-        <v>1370.156829673404</v>
+        <v>1031.431455032218</v>
       </c>
       <c r="O30" t="n">
-        <v>1508.609317205891</v>
+        <v>1169.883942564706</v>
       </c>
       <c r="P30" t="n">
-        <v>1619.729644637628</v>
+        <v>1281.004269996443</v>
       </c>
       <c r="Q30" t="n">
-        <v>1694.010640769128</v>
+        <v>1576.837862674789</v>
       </c>
       <c r="R30" t="n">
         <v>1730.1404435879</v>
@@ -6584,10 +6584,10 @@
         <v>989.1900427905989</v>
       </c>
       <c r="X30" t="n">
-        <v>834.3226070294788</v>
+        <v>834.3226070294789</v>
       </c>
       <c r="Y30" t="n">
-        <v>707.8368278086996</v>
+        <v>707.8368278086997</v>
       </c>
     </row>
     <row r="31">
@@ -6624,10 +6624,10 @@
         <v>121.1806870460138</v>
       </c>
       <c r="K31" t="n">
-        <v>452.6194130684407</v>
+        <v>452.6194130684406</v>
       </c>
       <c r="L31" t="n">
-        <v>943.3605279595956</v>
+        <v>943.3605279595954</v>
       </c>
       <c r="M31" t="n">
         <v>1479.318410839618</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1786.761900370685</v>
+        <v>2072.569908619489</v>
       </c>
       <c r="C32" t="n">
-        <v>1348.619427554108</v>
+        <v>1634.427435802912</v>
       </c>
       <c r="D32" t="n">
-        <v>1348.619427554108</v>
+        <v>1198.517650977356</v>
       </c>
       <c r="E32" t="n">
-        <v>914.844682712403</v>
+        <v>764.7429061356513</v>
       </c>
       <c r="F32" t="n">
-        <v>486.9772531216108</v>
+        <v>764.7429061356513</v>
       </c>
       <c r="G32" t="n">
-        <v>86.68910088977815</v>
+        <v>364.4547539038186</v>
       </c>
       <c r="H32" t="n">
         <v>86.68910088977815</v>
@@ -6700,28 +6700,28 @@
         <v>128.2101708451769</v>
       </c>
       <c r="J32" t="n">
-        <v>220.5185668264703</v>
+        <v>283.2093064883552</v>
       </c>
       <c r="K32" t="n">
-        <v>358.8649239192751</v>
+        <v>421.5556635811599</v>
       </c>
       <c r="L32" t="n">
-        <v>1431.64254743028</v>
+        <v>1494.333287092164</v>
       </c>
       <c r="M32" t="n">
-        <v>2504.420170941284</v>
+        <v>2567.110910603169</v>
       </c>
       <c r="N32" t="n">
-        <v>3577.197794452289</v>
+        <v>3639.888534114173</v>
       </c>
       <c r="O32" t="n">
-        <v>3992.29037869778</v>
+        <v>3823.136313944723</v>
       </c>
       <c r="P32" t="n">
-        <v>4148.688119195931</v>
+        <v>3979.534054442874</v>
       </c>
       <c r="Q32" t="n">
-        <v>4266.136308966324</v>
+        <v>4096.982244213267</v>
       </c>
       <c r="R32" t="n">
         <v>4334.455044488907</v>
@@ -6730,22 +6730,22 @@
         <v>4276.089984187233</v>
       </c>
       <c r="T32" t="n">
-        <v>4060.880377517087</v>
+        <v>4093.770470880572</v>
       </c>
       <c r="U32" t="n">
-        <v>3807.962462631768</v>
+        <v>4093.770470880572</v>
       </c>
       <c r="V32" t="n">
-        <v>3445.345512565595</v>
+        <v>3731.153520814399</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.490057976628</v>
+        <v>3326.298066225432</v>
       </c>
       <c r="X32" t="n">
-        <v>2621.347594555939</v>
+        <v>2907.155602804743</v>
       </c>
       <c r="Y32" t="n">
-        <v>2213.061470855592</v>
+        <v>2498.869479104396</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3190.847527629944</v>
+        <v>586.5329267289366</v>
       </c>
       <c r="C33" t="n">
-        <v>3084.391066466586</v>
+        <v>480.0764655655788</v>
       </c>
       <c r="D33" t="n">
-        <v>2989.300777613139</v>
+        <v>384.9861767121321</v>
       </c>
       <c r="E33" t="n">
-        <v>2895.180362940093</v>
+        <v>290.8657620390858</v>
       </c>
       <c r="F33" t="n">
-        <v>2811.796524556255</v>
+        <v>207.4819236552474</v>
       </c>
       <c r="G33" t="n">
-        <v>2727.005165508318</v>
+        <v>122.6905646073105</v>
       </c>
       <c r="H33" t="n">
-        <v>2691.003701790785</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="I33" t="n">
-        <v>2711.038948479635</v>
+        <v>106.7243475786278</v>
       </c>
       <c r="J33" t="n">
-        <v>2914.625630886053</v>
+        <v>193.1382518907057</v>
       </c>
       <c r="K33" t="n">
-        <v>3008.59221398712</v>
+        <v>287.1048349917729</v>
       </c>
       <c r="L33" t="n">
-        <v>3134.941881163108</v>
+        <v>413.4545021677603</v>
       </c>
       <c r="M33" t="n">
-        <v>3282.385983228693</v>
+        <v>560.8986042333454</v>
       </c>
       <c r="N33" t="n">
-        <v>3433.732491942336</v>
+        <v>712.245112946988</v>
       </c>
       <c r="O33" t="n">
-        <v>3572.184979474823</v>
+        <v>850.6976004794755</v>
       </c>
       <c r="P33" t="n">
-        <v>3683.30530690656</v>
+        <v>961.8179279112126</v>
       </c>
       <c r="Q33" t="n">
-        <v>4298.325241670136</v>
+        <v>1576.837862674789</v>
       </c>
       <c r="R33" t="n">
-        <v>4334.455044488907</v>
+        <v>1730.1404435879</v>
       </c>
       <c r="S33" t="n">
-        <v>4282.027894019302</v>
+        <v>1677.713293118295</v>
       </c>
       <c r="T33" t="n">
-        <v>4154.24240166711</v>
+        <v>1549.927800766103</v>
       </c>
       <c r="U33" t="n">
-        <v>3977.944915896413</v>
+        <v>1373.630314995406</v>
       </c>
       <c r="V33" t="n">
-        <v>3778.827397958412</v>
+        <v>1174.512797057405</v>
       </c>
       <c r="W33" t="n">
-        <v>3593.504643691606</v>
+        <v>989.1900427905989</v>
       </c>
       <c r="X33" t="n">
-        <v>3438.637207930486</v>
+        <v>834.3226070294789</v>
       </c>
       <c r="Y33" t="n">
-        <v>3312.151428709707</v>
+        <v>707.8368278086997</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2438.117898572513</v>
+        <v>1145.854807512352</v>
       </c>
       <c r="C34" t="n">
-        <v>2265.556187055738</v>
+        <v>973.2930959955773</v>
       </c>
       <c r="D34" t="n">
-        <v>2099.678194257261</v>
+        <v>807.4151031971001</v>
       </c>
       <c r="E34" t="n">
-        <v>1929.920190507998</v>
+        <v>637.6570994478373</v>
       </c>
       <c r="F34" t="n">
-        <v>1753.213136469754</v>
+        <v>460.9500454095935</v>
       </c>
       <c r="G34" t="n">
-        <v>1588.119625357916</v>
+        <v>295.856534297756</v>
       </c>
       <c r="H34" t="n">
-        <v>1452.64302429705</v>
+        <v>160.379933236889</v>
       </c>
       <c r="I34" t="n">
-        <v>1378.952191949939</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="J34" t="n">
-        <v>1413.443778106174</v>
+        <v>207.7603722107037</v>
       </c>
       <c r="K34" t="n">
-        <v>1744.882504128601</v>
+        <v>539.1990982331305</v>
       </c>
       <c r="L34" t="n">
-        <v>2235.623619019756</v>
+        <v>1029.940213124285</v>
       </c>
       <c r="M34" t="n">
-        <v>2771.581501899778</v>
+        <v>1565.898096004307</v>
       </c>
       <c r="N34" t="n">
-        <v>3288.495939591037</v>
+        <v>2082.812533695566</v>
       </c>
       <c r="O34" t="n">
-        <v>3777.121750673209</v>
+        <v>2571.438344777739</v>
       </c>
       <c r="P34" t="n">
-        <v>4183.632895925865</v>
+        <v>2977.949490030394</v>
       </c>
       <c r="Q34" t="n">
-        <v>4333.510765177481</v>
+        <v>3041.24767411732</v>
       </c>
       <c r="R34" t="n">
-        <v>4334.455044488907</v>
+        <v>3042.191953428747</v>
       </c>
       <c r="S34" t="n">
-        <v>4183.888342369593</v>
+        <v>2891.625251309433</v>
       </c>
       <c r="T34" t="n">
-        <v>3940.135705178025</v>
+        <v>2647.872614117864</v>
       </c>
       <c r="U34" t="n">
-        <v>3661.729855187257</v>
+        <v>2369.466764127097</v>
       </c>
       <c r="V34" t="n">
-        <v>3374.774347057688</v>
+        <v>2082.511255997527</v>
       </c>
       <c r="W34" t="n">
-        <v>3102.74794264398</v>
+        <v>1810.484851583819</v>
       </c>
       <c r="X34" t="n">
-        <v>2857.356187977392</v>
+        <v>1565.093096917231</v>
       </c>
       <c r="Y34" t="n">
-        <v>2629.9365172915</v>
+        <v>1337.67342623134</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1176.512662808143</v>
+        <v>2315.944999827934</v>
       </c>
       <c r="C35" t="n">
-        <v>738.3701899915663</v>
+        <v>1877.802527011358</v>
       </c>
       <c r="D35" t="n">
-        <v>738.3701899915663</v>
+        <v>1441.892742185802</v>
       </c>
       <c r="E35" t="n">
-        <v>738.3701899915663</v>
+        <v>1008.117997344097</v>
       </c>
       <c r="F35" t="n">
-        <v>738.3701899915663</v>
+        <v>580.2505677533049</v>
       </c>
       <c r="G35" t="n">
         <v>338.0820377597337</v>
@@ -6937,22 +6937,22 @@
         <v>101.837454701092</v>
       </c>
       <c r="J35" t="n">
-        <v>629.4005381353032</v>
+        <v>194.1458506823853</v>
       </c>
       <c r="K35" t="n">
-        <v>767.7468952281081</v>
+        <v>332.4922077751901</v>
       </c>
       <c r="L35" t="n">
-        <v>939.3777846234506</v>
+        <v>504.1230971705325</v>
       </c>
       <c r="M35" t="n">
-        <v>1130.350218807757</v>
+        <v>695.0955313548388</v>
       </c>
       <c r="N35" t="n">
-        <v>1324.412786632698</v>
+        <v>889.1580991797803</v>
       </c>
       <c r="O35" t="n">
-        <v>1507.660566463248</v>
+        <v>1367.98420005208</v>
       </c>
       <c r="P35" t="n">
         <v>2114.399461280034</v>
@@ -6970,19 +6970,19 @@
         <v>2742.244570312842</v>
       </c>
       <c r="U35" t="n">
-        <v>2483.111041961451</v>
+        <v>2742.244570312842</v>
       </c>
       <c r="V35" t="n">
-        <v>2120.494091895278</v>
+        <v>2742.244570312842</v>
       </c>
       <c r="W35" t="n">
-        <v>1715.638637306311</v>
+        <v>2742.244570312842</v>
       </c>
       <c r="X35" t="n">
-        <v>1584.79878650849</v>
+        <v>2742.244570312842</v>
       </c>
       <c r="Y35" t="n">
-        <v>1176.512662808143</v>
+        <v>2742.244570312842</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1872.211720425699</v>
+        <v>560.1602105848516</v>
       </c>
       <c r="C36" t="n">
-        <v>1765.755259262341</v>
+        <v>453.7037494214939</v>
       </c>
       <c r="D36" t="n">
-        <v>1670.664970408894</v>
+        <v>358.6134605680472</v>
       </c>
       <c r="E36" t="n">
-        <v>1576.544555735848</v>
+        <v>264.4930458950009</v>
       </c>
       <c r="F36" t="n">
-        <v>1493.16071735201</v>
+        <v>181.1092075111625</v>
       </c>
       <c r="G36" t="n">
-        <v>1408.369358304073</v>
+        <v>96.31784846322562</v>
       </c>
       <c r="H36" t="n">
-        <v>1372.367894586541</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="I36" t="n">
-        <v>1418.466814435848</v>
+        <v>106.4153045950005</v>
       </c>
       <c r="J36" t="n">
-        <v>1798.003387672698</v>
+        <v>485.951877831851</v>
       </c>
       <c r="K36" t="n">
-        <v>1891.969970773765</v>
+        <v>579.9184609329182</v>
       </c>
       <c r="L36" t="n">
-        <v>2018.319637949753</v>
+        <v>706.2681281089056</v>
       </c>
       <c r="M36" t="n">
-        <v>2165.763740015338</v>
+        <v>853.7122301744907</v>
       </c>
       <c r="N36" t="n">
-        <v>2317.110248728981</v>
+        <v>1005.058738888133</v>
       </c>
       <c r="O36" t="n">
-        <v>2455.562736261468</v>
+        <v>1143.511226420621</v>
       </c>
       <c r="P36" t="n">
-        <v>2566.683063693205</v>
+        <v>1254.631553852358</v>
       </c>
       <c r="Q36" t="n">
-        <v>2862.516656371551</v>
+        <v>1550.465146530704</v>
       </c>
       <c r="R36" t="n">
-        <v>3015.819237284662</v>
+        <v>1703.767727443815</v>
       </c>
       <c r="S36" t="n">
-        <v>2963.392086815057</v>
+        <v>1651.34057697421</v>
       </c>
       <c r="T36" t="n">
-        <v>2835.606594462865</v>
+        <v>1523.555084622018</v>
       </c>
       <c r="U36" t="n">
-        <v>2659.309108692168</v>
+        <v>1347.257598851321</v>
       </c>
       <c r="V36" t="n">
-        <v>2460.191590754167</v>
+        <v>1148.14008091332</v>
       </c>
       <c r="W36" t="n">
-        <v>2274.868836487361</v>
+        <v>962.8173266465139</v>
       </c>
       <c r="X36" t="n">
-        <v>2120.001400726241</v>
+        <v>807.949890885394</v>
       </c>
       <c r="Y36" t="n">
-        <v>1993.515621505462</v>
+        <v>681.4641116646147</v>
       </c>
     </row>
     <row r="37">
@@ -7074,46 +7074,46 @@
         <v>1119.482091368267</v>
       </c>
       <c r="C37" t="n">
-        <v>946.9203798514924</v>
+        <v>946.9203798514923</v>
       </c>
       <c r="D37" t="n">
-        <v>781.0423870530151</v>
+        <v>781.0423870530149</v>
       </c>
       <c r="E37" t="n">
-        <v>611.2843833037524</v>
+        <v>611.2843833037518</v>
       </c>
       <c r="F37" t="n">
-        <v>434.5773292655086</v>
+        <v>434.5773292655081</v>
       </c>
       <c r="G37" t="n">
-        <v>269.4838181536711</v>
+        <v>269.4838181536702</v>
       </c>
       <c r="H37" t="n">
-        <v>134.0072170928041</v>
+        <v>134.0072170928033</v>
       </c>
       <c r="I37" t="n">
         <v>60.31638474569324</v>
       </c>
       <c r="J37" t="n">
-        <v>94.80797090192894</v>
+        <v>181.3876560666188</v>
       </c>
       <c r="K37" t="n">
-        <v>426.2466969243558</v>
+        <v>512.8263820890456</v>
       </c>
       <c r="L37" t="n">
-        <v>916.9878118155107</v>
+        <v>1003.567496980201</v>
       </c>
       <c r="M37" t="n">
-        <v>1452.945694695533</v>
+        <v>1539.525379860223</v>
       </c>
       <c r="N37" t="n">
-        <v>1969.860132386792</v>
+        <v>2056.439817551482</v>
       </c>
       <c r="O37" t="n">
-        <v>2458.485943468964</v>
+        <v>2545.065628633654</v>
       </c>
       <c r="P37" t="n">
-        <v>2864.99708872162</v>
+        <v>2951.57677388631</v>
       </c>
       <c r="Q37" t="n">
         <v>3014.874957973235</v>
@@ -7128,10 +7128,10 @@
         <v>2621.499897973779</v>
       </c>
       <c r="U37" t="n">
-        <v>2343.094047983012</v>
+        <v>2343.094047983011</v>
       </c>
       <c r="V37" t="n">
-        <v>2056.138539853443</v>
+        <v>2056.138539853442</v>
       </c>
       <c r="W37" t="n">
         <v>1784.112135439734</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>939.4180034227305</v>
+        <v>1360.101031994767</v>
       </c>
       <c r="C38" t="n">
-        <v>501.2755306061538</v>
+        <v>921.9585591781904</v>
       </c>
       <c r="D38" t="n">
-        <v>460.6045369775259</v>
+        <v>921.9585591781904</v>
       </c>
       <c r="E38" t="n">
-        <v>460.6045369775259</v>
+        <v>488.1838143364855</v>
       </c>
       <c r="F38" t="n">
-        <v>460.6045369775259</v>
+        <v>60.31638474569323</v>
       </c>
       <c r="G38" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569323</v>
       </c>
       <c r="H38" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569323</v>
       </c>
       <c r="I38" t="n">
         <v>101.837454701092</v>
@@ -7177,22 +7177,22 @@
         <v>629.4005381353032</v>
       </c>
       <c r="K38" t="n">
-        <v>1174.569314775534</v>
+        <v>1218.088049546741</v>
       </c>
       <c r="L38" t="n">
-        <v>1346.200204170876</v>
+        <v>1389.718938942084</v>
       </c>
       <c r="M38" t="n">
-        <v>1537.172638355183</v>
+        <v>1580.69137312639</v>
       </c>
       <c r="N38" t="n">
-        <v>1731.235206180124</v>
+        <v>1774.753940951332</v>
       </c>
       <c r="O38" t="n">
-        <v>1914.482986010674</v>
+        <v>1958.001720781882</v>
       </c>
       <c r="P38" t="n">
-        <v>2660.898247238628</v>
+        <v>2114.399461280033</v>
       </c>
       <c r="Q38" t="n">
         <v>2778.346437009021</v>
@@ -7204,22 +7204,22 @@
         <v>3015.819237284662</v>
       </c>
       <c r="T38" t="n">
-        <v>2800.609630614516</v>
+        <v>3015.819237284662</v>
       </c>
       <c r="U38" t="n">
-        <v>2541.476102263125</v>
+        <v>2756.685708933271</v>
       </c>
       <c r="V38" t="n">
-        <v>2178.859152196952</v>
+        <v>2394.068758867097</v>
       </c>
       <c r="W38" t="n">
-        <v>1774.003697607985</v>
+        <v>2194.686726180022</v>
       </c>
       <c r="X38" t="n">
-        <v>1774.003697607985</v>
+        <v>2194.686726180022</v>
       </c>
       <c r="Y38" t="n">
-        <v>1365.717573907638</v>
+        <v>1786.400602479675</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1872.211720425699</v>
+        <v>560.1602105848516</v>
       </c>
       <c r="C39" t="n">
-        <v>1765.755259262341</v>
+        <v>453.7037494214939</v>
       </c>
       <c r="D39" t="n">
-        <v>1670.664970408894</v>
+        <v>358.6134605680471</v>
       </c>
       <c r="E39" t="n">
-        <v>1576.544555735848</v>
+        <v>264.4930458950008</v>
       </c>
       <c r="F39" t="n">
-        <v>1493.16071735201</v>
+        <v>181.1092075111625</v>
       </c>
       <c r="G39" t="n">
-        <v>1408.369358304073</v>
+        <v>96.3178484632256</v>
       </c>
       <c r="H39" t="n">
-        <v>1372.367894586541</v>
+        <v>60.31638474569323</v>
       </c>
       <c r="I39" t="n">
-        <v>1418.466814435848</v>
+        <v>106.4153045950005</v>
       </c>
       <c r="J39" t="n">
-        <v>1798.003387672698</v>
+        <v>485.951877831851</v>
       </c>
       <c r="K39" t="n">
-        <v>1891.969970773765</v>
+        <v>579.9184609329182</v>
       </c>
       <c r="L39" t="n">
-        <v>2018.319637949753</v>
+        <v>706.2681281089056</v>
       </c>
       <c r="M39" t="n">
-        <v>2165.763740015338</v>
+        <v>853.7122301744907</v>
       </c>
       <c r="N39" t="n">
-        <v>2317.110248728981</v>
+        <v>1005.058738888133</v>
       </c>
       <c r="O39" t="n">
-        <v>2455.562736261468</v>
+        <v>1143.511226420621</v>
       </c>
       <c r="P39" t="n">
-        <v>2566.683063693205</v>
+        <v>1254.631553852358</v>
       </c>
       <c r="Q39" t="n">
-        <v>2862.516656371551</v>
+        <v>1550.465146530704</v>
       </c>
       <c r="R39" t="n">
-        <v>3015.819237284662</v>
+        <v>1703.767727443815</v>
       </c>
       <c r="S39" t="n">
-        <v>2963.392086815057</v>
+        <v>1651.34057697421</v>
       </c>
       <c r="T39" t="n">
-        <v>2835.606594462865</v>
+        <v>1523.555084622018</v>
       </c>
       <c r="U39" t="n">
-        <v>2659.309108692168</v>
+        <v>1347.257598851321</v>
       </c>
       <c r="V39" t="n">
-        <v>2460.191590754167</v>
+        <v>1148.14008091332</v>
       </c>
       <c r="W39" t="n">
-        <v>2274.868836487361</v>
+        <v>962.8173266465139</v>
       </c>
       <c r="X39" t="n">
-        <v>2120.001400726241</v>
+        <v>807.949890885394</v>
       </c>
       <c r="Y39" t="n">
-        <v>1993.515621505462</v>
+        <v>681.4641116646147</v>
       </c>
     </row>
     <row r="40">
@@ -7317,40 +7317,40 @@
         <v>781.0423870530151</v>
       </c>
       <c r="E40" t="n">
-        <v>611.2843833037523</v>
+        <v>611.2843833037524</v>
       </c>
       <c r="F40" t="n">
-        <v>434.5773292655085</v>
+        <v>434.5773292655086</v>
       </c>
       <c r="G40" t="n">
-        <v>269.4838181536705</v>
+        <v>269.4838181536711</v>
       </c>
       <c r="H40" t="n">
         <v>134.0072170928041</v>
       </c>
       <c r="I40" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569323</v>
       </c>
       <c r="J40" t="n">
-        <v>94.80797090192894</v>
+        <v>94.80797090192893</v>
       </c>
       <c r="K40" t="n">
-        <v>367.0803061521829</v>
+        <v>426.2466969243557</v>
       </c>
       <c r="L40" t="n">
-        <v>857.8214210433378</v>
+        <v>916.9878118155106</v>
       </c>
       <c r="M40" t="n">
-        <v>1393.77930392336</v>
+        <v>1452.945694695533</v>
       </c>
       <c r="N40" t="n">
-        <v>1910.693741614619</v>
+        <v>1969.860132386791</v>
       </c>
       <c r="O40" t="n">
-        <v>2399.319552696791</v>
+        <v>2458.485943468963</v>
       </c>
       <c r="P40" t="n">
-        <v>2805.830697949447</v>
+        <v>2864.99708872162</v>
       </c>
       <c r="Q40" t="n">
         <v>3014.874957973235</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1768.431539461363</v>
+        <v>2191.821319275006</v>
       </c>
       <c r="C41" t="n">
-        <v>1330.289066644786</v>
+        <v>1753.678846458429</v>
       </c>
       <c r="D41" t="n">
-        <v>894.3792818192308</v>
+        <v>1317.769061632874</v>
       </c>
       <c r="E41" t="n">
-        <v>460.6045369775259</v>
+        <v>883.9943167911688</v>
       </c>
       <c r="F41" t="n">
-        <v>460.6045369775259</v>
+        <v>456.1268872003765</v>
       </c>
       <c r="G41" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569323</v>
       </c>
       <c r="H41" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569323</v>
       </c>
       <c r="I41" t="n">
         <v>101.837454701092</v>
@@ -7414,10 +7414,10 @@
         <v>629.4005381353032</v>
       </c>
       <c r="K41" t="n">
-        <v>767.7468952281081</v>
+        <v>767.746895228108</v>
       </c>
       <c r="L41" t="n">
-        <v>939.3777846234506</v>
+        <v>939.3777846234505</v>
       </c>
       <c r="M41" t="n">
         <v>1130.350218807757</v>
@@ -7441,22 +7441,22 @@
         <v>3015.819237284662</v>
       </c>
       <c r="T41" t="n">
-        <v>2862.150761998008</v>
+        <v>3015.819237284662</v>
       </c>
       <c r="U41" t="n">
-        <v>2603.017233646618</v>
+        <v>3015.819237284662</v>
       </c>
       <c r="V41" t="n">
-        <v>2603.017233646618</v>
+        <v>3015.819237284662</v>
       </c>
       <c r="W41" t="n">
-        <v>2603.017233646618</v>
+        <v>2610.963782695695</v>
       </c>
       <c r="X41" t="n">
-        <v>2603.017233646618</v>
+        <v>2191.821319275006</v>
       </c>
       <c r="Y41" t="n">
-        <v>2194.731109946271</v>
+        <v>2191.821319275006</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1872.211720425699</v>
+        <v>560.1602105848516</v>
       </c>
       <c r="C42" t="n">
-        <v>1765.755259262341</v>
+        <v>453.7037494214939</v>
       </c>
       <c r="D42" t="n">
-        <v>1670.664970408894</v>
+        <v>358.6134605680471</v>
       </c>
       <c r="E42" t="n">
-        <v>1576.544555735848</v>
+        <v>264.4930458950008</v>
       </c>
       <c r="F42" t="n">
-        <v>1493.16071735201</v>
+        <v>181.1092075111625</v>
       </c>
       <c r="G42" t="n">
-        <v>1408.369358304073</v>
+        <v>96.3178484632256</v>
       </c>
       <c r="H42" t="n">
-        <v>1372.367894586541</v>
+        <v>60.31638474569323</v>
       </c>
       <c r="I42" t="n">
-        <v>1418.466814435848</v>
+        <v>106.4153045950005</v>
       </c>
       <c r="J42" t="n">
-        <v>1798.003387672698</v>
+        <v>161.3935528656387</v>
       </c>
       <c r="K42" t="n">
-        <v>1891.969970773765</v>
+        <v>260.7321188476877</v>
       </c>
       <c r="L42" t="n">
-        <v>2018.319637949753</v>
+        <v>387.0817860236752</v>
       </c>
       <c r="M42" t="n">
-        <v>2165.763740015338</v>
+        <v>534.5258880892603</v>
       </c>
       <c r="N42" t="n">
-        <v>2317.110248728981</v>
+        <v>685.8723968029029</v>
       </c>
       <c r="O42" t="n">
-        <v>2455.562736261468</v>
+        <v>824.3248843353904</v>
       </c>
       <c r="P42" t="n">
-        <v>2566.683063693205</v>
+        <v>935.4452117671274</v>
       </c>
       <c r="Q42" t="n">
-        <v>2862.516656371551</v>
+        <v>1550.465146530704</v>
       </c>
       <c r="R42" t="n">
-        <v>3015.819237284662</v>
+        <v>1703.767727443815</v>
       </c>
       <c r="S42" t="n">
-        <v>2963.392086815057</v>
+        <v>1651.34057697421</v>
       </c>
       <c r="T42" t="n">
-        <v>2835.606594462865</v>
+        <v>1523.555084622018</v>
       </c>
       <c r="U42" t="n">
-        <v>2659.309108692168</v>
+        <v>1347.257598851321</v>
       </c>
       <c r="V42" t="n">
-        <v>2460.191590754167</v>
+        <v>1148.14008091332</v>
       </c>
       <c r="W42" t="n">
-        <v>2274.868836487361</v>
+        <v>962.8173266465139</v>
       </c>
       <c r="X42" t="n">
-        <v>2120.001400726241</v>
+        <v>807.949890885394</v>
       </c>
       <c r="Y42" t="n">
-        <v>1993.515621505462</v>
+        <v>681.4641116646147</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1119.482091368268</v>
+        <v>1119.482091368267</v>
       </c>
       <c r="C43" t="n">
-        <v>946.9203798514926</v>
+        <v>946.9203798514924</v>
       </c>
       <c r="D43" t="n">
         <v>781.0423870530151</v>
@@ -7566,28 +7566,28 @@
         <v>134.0072170928041</v>
       </c>
       <c r="I43" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569323</v>
       </c>
       <c r="J43" t="n">
-        <v>94.80797090192894</v>
+        <v>181.3876560666188</v>
       </c>
       <c r="K43" t="n">
-        <v>426.2466969243558</v>
+        <v>512.8263820890456</v>
       </c>
       <c r="L43" t="n">
-        <v>916.9878118155107</v>
+        <v>1003.567496980201</v>
       </c>
       <c r="M43" t="n">
-        <v>1452.945694695533</v>
+        <v>1539.525379860223</v>
       </c>
       <c r="N43" t="n">
-        <v>1969.860132386792</v>
+        <v>2056.439817551482</v>
       </c>
       <c r="O43" t="n">
-        <v>2458.485943468964</v>
+        <v>2545.065628633654</v>
       </c>
       <c r="P43" t="n">
-        <v>2864.99708872162</v>
+        <v>2951.57677388631</v>
       </c>
       <c r="Q43" t="n">
         <v>3014.874957973235</v>
@@ -7611,7 +7611,7 @@
         <v>1784.112135439734</v>
       </c>
       <c r="X43" t="n">
-        <v>1538.720380773147</v>
+        <v>1538.720380773146</v>
       </c>
       <c r="Y43" t="n">
         <v>1311.300710087255</v>
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>881.0529431210565</v>
+        <v>461.9104797003665</v>
       </c>
       <c r="C44" t="n">
-        <v>738.3701899915663</v>
+        <v>460.6045369775259</v>
       </c>
       <c r="D44" t="n">
-        <v>738.3701899915663</v>
+        <v>460.6045369775259</v>
       </c>
       <c r="E44" t="n">
-        <v>738.3701899915663</v>
+        <v>460.6045369775259</v>
       </c>
       <c r="F44" t="n">
-        <v>738.3701899915663</v>
+        <v>460.6045369775259</v>
       </c>
       <c r="G44" t="n">
-        <v>338.0820377597337</v>
+        <v>60.31638474569323</v>
       </c>
       <c r="H44" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569323</v>
       </c>
       <c r="I44" t="n">
         <v>101.837454701092</v>
       </c>
       <c r="J44" t="n">
-        <v>629.4005381353032</v>
+        <v>489.7241717241343</v>
       </c>
       <c r="K44" t="n">
-        <v>767.7468952281081</v>
+        <v>628.070528816939</v>
       </c>
       <c r="L44" t="n">
-        <v>939.3777846234506</v>
+        <v>799.7014182122815</v>
       </c>
       <c r="M44" t="n">
-        <v>1130.350218807757</v>
+        <v>990.6738523965878</v>
       </c>
       <c r="N44" t="n">
-        <v>1324.412786632698</v>
+        <v>1184.736420221529</v>
       </c>
       <c r="O44" t="n">
-        <v>1958.001720781882</v>
+        <v>1367.984200052079</v>
       </c>
       <c r="P44" t="n">
         <v>2114.399461280033</v>
@@ -7678,22 +7678,22 @@
         <v>2957.454176982988</v>
       </c>
       <c r="T44" t="n">
-        <v>2742.244570312842</v>
+        <v>2742.244570312841</v>
       </c>
       <c r="U44" t="n">
         <v>2483.111041961451</v>
       </c>
       <c r="V44" t="n">
-        <v>2120.494091895278</v>
+        <v>2120.494091895277</v>
       </c>
       <c r="W44" t="n">
-        <v>1715.638637306311</v>
+        <v>1715.63863730631</v>
       </c>
       <c r="X44" t="n">
-        <v>1715.638637306311</v>
+        <v>1296.496173885621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1307.352513605964</v>
+        <v>888.2100501852743</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>96.3178484632256</v>
       </c>
       <c r="H45" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569323</v>
       </c>
       <c r="I45" t="n">
         <v>106.4153045950005</v>
@@ -7730,22 +7730,22 @@
         <v>485.951877831851</v>
       </c>
       <c r="K45" t="n">
-        <v>579.9184609329183</v>
+        <v>801.4710574797637</v>
       </c>
       <c r="L45" t="n">
-        <v>706.2681281089057</v>
+        <v>927.8207246557511</v>
       </c>
       <c r="M45" t="n">
-        <v>853.7122301744909</v>
+        <v>1075.264826721336</v>
       </c>
       <c r="N45" t="n">
-        <v>1005.058738888133</v>
+        <v>1226.611335434979</v>
       </c>
       <c r="O45" t="n">
-        <v>1143.511226420621</v>
+        <v>1365.063822967466</v>
       </c>
       <c r="P45" t="n">
-        <v>1254.631553852358</v>
+        <v>1476.184150399203</v>
       </c>
       <c r="Q45" t="n">
         <v>1550.465146530704</v>
@@ -7803,28 +7803,28 @@
         <v>134.0072170928041</v>
       </c>
       <c r="I46" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569323</v>
       </c>
       <c r="J46" t="n">
-        <v>94.80797090192894</v>
+        <v>181.3876560666188</v>
       </c>
       <c r="K46" t="n">
-        <v>426.2466969243558</v>
+        <v>512.8263820890456</v>
       </c>
       <c r="L46" t="n">
-        <v>916.9878118155107</v>
+        <v>1003.567496980201</v>
       </c>
       <c r="M46" t="n">
-        <v>1452.945694695533</v>
+        <v>1539.525379860223</v>
       </c>
       <c r="N46" t="n">
-        <v>1969.860132386792</v>
+        <v>2056.439817551482</v>
       </c>
       <c r="O46" t="n">
-        <v>2458.485943468964</v>
+        <v>2545.065628633654</v>
       </c>
       <c r="P46" t="n">
-        <v>2864.99708872162</v>
+        <v>2951.57677388631</v>
       </c>
       <c r="Q46" t="n">
         <v>3014.874957973235</v>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P5" t="n">
         <v>236.2898988798406</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>58.38468441396105</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O8" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -8537,25 +8537,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>79.31589866453203</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,22 +8613,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N10" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -8692,10 +8692,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>614.2110142779285</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>392.6980163051312</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8707,10 +8707,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>454.8900548673068</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>54.59842320367483</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>641.712054339613</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>223.7905015624701</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>217.7697614130933</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
@@ -8868,7 +8868,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>110.1276606991514</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>614.2110142779283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>568.8560418155596</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>434.3558656067175</v>
+        <v>454.8900548673073</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>223.7905015624702</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>223.7905015624701</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -9105,7 +9105,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>110.1276606991505</v>
+        <v>22.67343326006994</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9169,10 +9169,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>445.8556699329106</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>561.053360650149</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9181,10 +9181,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>454.8900548673068</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9242,10 +9242,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>10.94446614193006</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>659.039068815037</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>223.79050156247</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>217.7697614130933</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>316.9068598424751</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>454.8900548673069</v>
+        <v>454.8900548673073</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9479,7 +9479,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>123.7825868437593</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>223.7905015624701</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -9579,7 +9579,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>110.127660699151</v>
+        <v>22.67343326006994</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>807.9142726190811</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>807.9142726190812</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>223.7905015624698</v>
+        <v>223.7905015624701</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>80.75159453254651</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>173.9067760790692</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>898.514993616621</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>223.79050156247</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>223.7905015624704</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10114,28 +10114,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>464.6658730483444</v>
+        <v>910.2492263794566</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>887.5909653394579</v>
       </c>
       <c r="O29" t="n">
-        <v>898.5149936166208</v>
+        <v>282.1209108923854</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>696.310477543288</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>223.7905015624704</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>63.32397945644942</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>910.2492263794567</v>
+        <v>910.2492263794566</v>
       </c>
       <c r="M32" t="n">
-        <v>890.7123124512103</v>
+        <v>890.7123124512102</v>
       </c>
       <c r="N32" t="n">
-        <v>887.590965339458</v>
+        <v>887.5909653394574</v>
       </c>
       <c r="O32" t="n">
-        <v>234.186671126203</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>150.1095294300812</v>
+        <v>31.75318792064616</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>110.1276606991514</v>
+        <v>22.6734332600704</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>298.5639606482321</v>
       </c>
       <c r="P35" t="n">
-        <v>454.8900548673073</v>
+        <v>595.9772936664674</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>223.7905015624696</v>
+        <v>223.7905015624701</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.1276606991506</v>
+        <v>22.67343326006994</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>410.9317369165915</v>
+        <v>454.8900548673065</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10840,10 +10840,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>595.9772936664674</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>223.7905015624696</v>
+        <v>223.7905015624701</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -10983,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>217.7697614130936</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>110.1276606991514</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>454.8900548673069</v>
+        <v>454.8900548673064</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11138,10 +11138,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>5.426245334325188</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>223.7905015624697</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11238,7 +11238,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.127660699151</v>
+        <v>22.67343326006994</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>298.5639606482313</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11311,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>454.8900548673068</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>595.9772936664672</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>223.7905015624702</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>223.79050156247</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11475,7 +11475,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.1276606991506</v>
+        <v>22.67343326006994</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>204.6506022403788</v>
+        <v>274.9879964839001</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.78140969865706</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>213.0575106034447</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5421930678769</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>42.092680339975</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>369.789465083893</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.2852707095142</v>
       </c>
       <c r="H14" t="n">
-        <v>31.75579791496796</v>
+        <v>274.9879964839001</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>213.0575106034447</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5421930678769</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>60.63760258484285</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23743,7 +23743,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>227.6841648118503</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>213.0575106034447</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5421930678769</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>396.2852707095142</v>
       </c>
       <c r="H20" t="n">
-        <v>256.9486201317866</v>
+        <v>274.9879964839001</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>57.78140969865706</v>
       </c>
       <c r="T20" t="n">
-        <v>213.0575106034447</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5421930678769</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>35.93118676361979</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24448,10 +24448,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>283.2551433993232</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.9879964839001</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>57.78140969865706</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>20.93195404454238</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>57.78140969865706</v>
       </c>
       <c r="T29" t="n">
         <v>213.0575106034447</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>166.8652240066095</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>224.6466337052663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.9879964839001</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>32.56119242985028</v>
       </c>
       <c r="U32" t="n">
-        <v>6.15345733141105</v>
+        <v>256.5421930678769</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>156.5384260158787</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.5421930678769</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>285.4195864966395</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25396,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>391.2864032849582</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>396.2852707095142</v>
       </c>
       <c r="H38" t="n">
         <v>274.9879964839001</v>
@@ -25444,7 +25444,7 @@
         <v>57.78140969865706</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>213.0575106034447</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>203.4186876828723</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>4.432873279377816</v>
       </c>
       <c r="H41" t="n">
         <v>274.9879964839001</v>
@@ -25681,22 +25681,22 @@
         <v>57.78140969865706</v>
       </c>
       <c r="T41" t="n">
-        <v>60.92572006965767</v>
+        <v>213.0575106034447</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5421930678769</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>292.5051224902157</v>
+        <v>432.4681647927987</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.9879964839001</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>469882.5180839332</v>
+        <v>469882.5180839333</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>469882.5180839332</v>
+        <v>469882.5180839333</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>607877.3622211914</v>
+        <v>607877.3622211915</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>607877.3622211916</v>
+        <v>607877.3622211915</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>469882.5180839333</v>
+        <v>469882.5180839332</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>469882.5180839333</v>
+        <v>469882.5180839332</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>348495.7579287653</v>
       </c>
       <c r="C2" t="n">
+        <v>348495.7579287653</v>
+      </c>
+      <c r="D2" t="n">
         <v>348495.7579287655</v>
-      </c>
-      <c r="D2" t="n">
-        <v>348495.7579287653</v>
       </c>
       <c r="E2" t="n">
         <v>245427.9911560175</v>
@@ -26340,7 +26340,7 @@
         <v>311621.0665641556</v>
       </c>
       <c r="K2" t="n">
-        <v>311621.0665641558</v>
+        <v>311621.0665641556</v>
       </c>
       <c r="L2" t="n">
         <v>311621.0665641557</v>
@@ -26349,7 +26349,7 @@
         <v>245427.9911560175</v>
       </c>
       <c r="N2" t="n">
-        <v>245427.9911560176</v>
+        <v>245427.9911560175</v>
       </c>
       <c r="O2" t="n">
         <v>245427.9911560175</v>
@@ -26377,7 +26377,7 @@
         <v>317976.7446908171</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.261091817170383e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>136498.4800234856</v>
+        <v>136498.4800234857</v>
       </c>
       <c r="J3" t="n">
-        <v>62964.6760011584</v>
+        <v>62964.67600115843</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>230489.5592232714</v>
       </c>
       <c r="E4" t="n">
-        <v>55112.34442851594</v>
+        <v>55112.34442851596</v>
       </c>
       <c r="F4" t="n">
         <v>55112.34442851596</v>
       </c>
       <c r="G4" t="n">
-        <v>55112.34442851595</v>
+        <v>55112.34442851596</v>
       </c>
       <c r="H4" t="n">
-        <v>55112.34442851595</v>
+        <v>55112.34442851596</v>
       </c>
       <c r="I4" t="n">
-        <v>95801.35315344374</v>
+        <v>95801.35315344375</v>
       </c>
       <c r="J4" t="n">
         <v>81243.99263575817</v>
       </c>
       <c r="K4" t="n">
-        <v>81243.99263575814</v>
+        <v>81243.99263575819</v>
       </c>
       <c r="L4" t="n">
-        <v>81243.9926357582</v>
+        <v>81243.99263575817</v>
       </c>
       <c r="M4" t="n">
-        <v>55112.34442851595</v>
+        <v>55112.34442851596</v>
       </c>
       <c r="N4" t="n">
-        <v>55112.34442851595</v>
+        <v>55112.34442851594</v>
       </c>
       <c r="O4" t="n">
-        <v>55112.34442851595</v>
+        <v>55112.34442851593</v>
       </c>
       <c r="P4" t="n">
-        <v>55112.34442851595</v>
+        <v>55112.34442851594</v>
       </c>
     </row>
     <row r="5">
@@ -26505,13 +26505,13 @@
         <v>51797.78986392222</v>
       </c>
       <c r="N5" t="n">
-        <v>51797.78986392222</v>
+        <v>51797.78986392221</v>
       </c>
       <c r="O5" t="n">
-        <v>51797.78986392222</v>
+        <v>51797.78986392221</v>
       </c>
       <c r="P5" t="n">
-        <v>51797.78986392222</v>
+        <v>51797.78986392221</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-83609.89009143837</v>
+        <v>-83609.89009143846</v>
       </c>
       <c r="C6" t="n">
-        <v>58581.41056827176</v>
+        <v>58581.41056827148</v>
       </c>
       <c r="D6" t="n">
-        <v>58581.41056827148</v>
+        <v>58581.41056827171</v>
       </c>
       <c r="E6" t="n">
-        <v>-179458.8878272378</v>
+        <v>-179855.3023148253</v>
       </c>
       <c r="F6" t="n">
-        <v>138517.8568635793</v>
+        <v>138121.4423759918</v>
       </c>
       <c r="G6" t="n">
-        <v>138517.8568635793</v>
+        <v>138121.4423759918</v>
       </c>
       <c r="H6" t="n">
-        <v>138517.8568635793</v>
+        <v>138121.4423759918</v>
       </c>
       <c r="I6" t="n">
-        <v>33189.21349611733</v>
+        <v>33189.21349611726</v>
       </c>
       <c r="J6" t="n">
-        <v>95571.34379381232</v>
+        <v>95429.51805779448</v>
       </c>
       <c r="K6" t="n">
-        <v>158536.0197949709</v>
+        <v>158394.194058953</v>
       </c>
       <c r="L6" t="n">
-        <v>158536.0197949708</v>
+        <v>158394.194058953</v>
       </c>
       <c r="M6" t="n">
-        <v>138517.8568635793</v>
+        <v>138121.4423759918</v>
       </c>
       <c r="N6" t="n">
-        <v>138517.8568635794</v>
+        <v>138121.4423759919</v>
       </c>
       <c r="O6" t="n">
-        <v>138517.8568635793</v>
+        <v>138121.4423759919</v>
       </c>
       <c r="P6" t="n">
-        <v>138517.8568635794</v>
+        <v>138121.4423759919</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>273.2723604218056</v>
+        <v>273.2723604218055</v>
       </c>
       <c r="F3" t="n">
-        <v>273.2723604218056</v>
+        <v>273.2723604218055</v>
       </c>
       <c r="G3" t="n">
-        <v>273.2723604218056</v>
+        <v>273.2723604218055</v>
       </c>
       <c r="H3" t="n">
-        <v>273.2723604218056</v>
+        <v>273.2723604218055</v>
       </c>
       <c r="I3" t="n">
-        <v>273.2723604218056</v>
+        <v>273.2723604218055</v>
       </c>
       <c r="J3" t="n">
-        <v>273.2723604218056</v>
+        <v>273.2723604218055</v>
       </c>
       <c r="K3" t="n">
-        <v>273.2723604218056</v>
+        <v>273.2723604218055</v>
       </c>
       <c r="L3" t="n">
-        <v>273.2723604218056</v>
+        <v>273.2723604218055</v>
       </c>
       <c r="M3" t="n">
-        <v>273.2723604218056</v>
+        <v>273.2723604218055</v>
       </c>
       <c r="N3" t="n">
-        <v>273.2723604218056</v>
+        <v>273.2723604218055</v>
       </c>
       <c r="O3" t="n">
-        <v>273.2723604218056</v>
+        <v>273.2723604218055</v>
       </c>
       <c r="P3" t="n">
-        <v>273.2723604218056</v>
+        <v>273.2723604218055</v>
       </c>
     </row>
     <row r="4">
@@ -26825,13 +26825,13 @@
         <v>753.9548093211655</v>
       </c>
       <c r="N4" t="n">
-        <v>753.9548093211655</v>
+        <v>753.9548093211654</v>
       </c>
       <c r="O4" t="n">
-        <v>753.9548093211655</v>
+        <v>753.9548093211654</v>
       </c>
       <c r="P4" t="n">
-        <v>753.9548093211655</v>
+        <v>753.9548093211654</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>273.2723604218056</v>
+        <v>273.2723604218055</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>329.6589518010613</v>
+        <v>329.6589518010612</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.487157122624258e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>513.304628154548</v>
+        <v>513.3046281545484</v>
       </c>
       <c r="J4" t="n">
-        <v>240.6501811666172</v>
+        <v>240.6501811666174</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>329.6589518010613</v>
+        <v>329.6589518010612</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.487157122624258e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>213.3840877378044</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>147.6279365193114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>33.0187249677744</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>158.9168016168564</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>230.0306701181816</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>97.00787993732126</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -27836,10 +27836,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>116.3871896330168</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>79.64395877249362</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>113.7278999628233</v>
+        <v>53.17333469697792</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>152.3099806464794</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>155.6575539015175</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28061,19 +28061,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31761,7 +31761,7 @@
         <v>42.35309618155441</v>
       </c>
       <c r="J11" t="n">
-        <v>93.24080402150844</v>
+        <v>93.24080402150841</v>
       </c>
       <c r="K11" t="n">
         <v>139.7437950432372</v>
@@ -31779,22 +31779,22 @@
         <v>185.098767505606</v>
       </c>
       <c r="P11" t="n">
-        <v>157.9775156546982</v>
+        <v>157.9775156546981</v>
       </c>
       <c r="Q11" t="n">
-        <v>118.6345351216091</v>
+        <v>118.634535121609</v>
       </c>
       <c r="R11" t="n">
-        <v>69.0088237601859</v>
+        <v>69.00882376018589</v>
       </c>
       <c r="S11" t="n">
         <v>25.0339453793443</v>
       </c>
       <c r="T11" t="n">
-        <v>4.809044252247049</v>
+        <v>4.809044252247048</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08788658827635949</v>
+        <v>0.08788658827635948</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5877933790204874</v>
+        <v>0.5877933790204873</v>
       </c>
       <c r="H12" t="n">
-        <v>5.676846581592604</v>
+        <v>5.676846581592602</v>
       </c>
       <c r="I12" t="n">
         <v>20.23762291802994</v>
       </c>
       <c r="J12" t="n">
-        <v>55.5335841117558</v>
+        <v>55.53358411175579</v>
       </c>
       <c r="K12" t="n">
-        <v>94.91574050612846</v>
+        <v>94.91574050612843</v>
       </c>
       <c r="L12" t="n">
         <v>127.6259264403914</v>
@@ -31858,10 +31858,10 @@
         <v>139.8509975075631</v>
       </c>
       <c r="P12" t="n">
-        <v>112.2427549815526</v>
+        <v>112.2427549815525</v>
       </c>
       <c r="Q12" t="n">
-        <v>75.03130922373802</v>
+        <v>75.03130922373801</v>
       </c>
       <c r="R12" t="n">
         <v>36.49475032199133</v>
@@ -31873,7 +31873,7 @@
         <v>2.369219804034332</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03867061704082156</v>
+        <v>0.03867061704082155</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,43 +31910,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4927862237114526</v>
+        <v>0.4927862237114525</v>
       </c>
       <c r="H13" t="n">
-        <v>4.381317516270918</v>
+        <v>4.381317516270917</v>
       </c>
       <c r="I13" t="n">
         <v>14.81942570943169</v>
       </c>
       <c r="J13" t="n">
-        <v>34.8399860163997</v>
+        <v>34.83998601639969</v>
       </c>
       <c r="K13" t="n">
-        <v>57.25279944574875</v>
+        <v>57.25279944574874</v>
       </c>
       <c r="L13" t="n">
-        <v>73.26387184160997</v>
+        <v>73.26387184160996</v>
       </c>
       <c r="M13" t="n">
-        <v>77.2464805041507</v>
+        <v>77.24648050415067</v>
       </c>
       <c r="N13" t="n">
-        <v>75.40973185213534</v>
+        <v>75.40973185213532</v>
       </c>
       <c r="O13" t="n">
-        <v>69.65309278423334</v>
+        <v>69.65309278423332</v>
       </c>
       <c r="P13" t="n">
-        <v>59.60025382051966</v>
+        <v>59.60025382051965</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.26412642369264</v>
+        <v>41.26412642369263</v>
       </c>
       <c r="R13" t="n">
-        <v>22.15746056797131</v>
+        <v>22.1574605679713</v>
       </c>
       <c r="S13" t="n">
-        <v>8.587919916862312</v>
+        <v>8.58791991686231</v>
       </c>
       <c r="T13" t="n">
         <v>2.105541137676206</v>
@@ -31998,7 +31998,7 @@
         <v>42.35309618155441</v>
       </c>
       <c r="J14" t="n">
-        <v>93.24080402150844</v>
+        <v>93.24080402150841</v>
       </c>
       <c r="K14" t="n">
         <v>139.7437950432372</v>
@@ -32016,22 +32016,22 @@
         <v>185.098767505606</v>
       </c>
       <c r="P14" t="n">
-        <v>157.9775156546982</v>
+        <v>157.9775156546981</v>
       </c>
       <c r="Q14" t="n">
-        <v>118.6345351216091</v>
+        <v>118.634535121609</v>
       </c>
       <c r="R14" t="n">
-        <v>69.0088237601859</v>
+        <v>69.00882376018589</v>
       </c>
       <c r="S14" t="n">
         <v>25.0339453793443</v>
       </c>
       <c r="T14" t="n">
-        <v>4.809044252247049</v>
+        <v>4.809044252247048</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08788658827635949</v>
+        <v>0.08788658827635948</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5877933790204874</v>
+        <v>0.5877933790204873</v>
       </c>
       <c r="H15" t="n">
-        <v>5.676846581592604</v>
+        <v>5.676846581592602</v>
       </c>
       <c r="I15" t="n">
         <v>20.23762291802994</v>
       </c>
       <c r="J15" t="n">
-        <v>55.5335841117558</v>
+        <v>55.53358411175579</v>
       </c>
       <c r="K15" t="n">
-        <v>94.91574050612846</v>
+        <v>94.91574050612843</v>
       </c>
       <c r="L15" t="n">
         <v>127.6259264403914</v>
@@ -32095,10 +32095,10 @@
         <v>139.8509975075631</v>
       </c>
       <c r="P15" t="n">
-        <v>112.2427549815526</v>
+        <v>112.2427549815525</v>
       </c>
       <c r="Q15" t="n">
-        <v>75.03130922373802</v>
+        <v>75.03130922373801</v>
       </c>
       <c r="R15" t="n">
         <v>36.49475032199133</v>
@@ -32110,7 +32110,7 @@
         <v>2.369219804034332</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03867061704082156</v>
+        <v>0.03867061704082155</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,43 +32147,43 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4927862237114526</v>
+        <v>0.4927862237114525</v>
       </c>
       <c r="H16" t="n">
-        <v>4.381317516270918</v>
+        <v>4.381317516270917</v>
       </c>
       <c r="I16" t="n">
         <v>14.81942570943169</v>
       </c>
       <c r="J16" t="n">
-        <v>34.8399860163997</v>
+        <v>34.83998601639969</v>
       </c>
       <c r="K16" t="n">
-        <v>57.25279944574875</v>
+        <v>57.25279944574874</v>
       </c>
       <c r="L16" t="n">
-        <v>73.26387184160997</v>
+        <v>73.26387184160996</v>
       </c>
       <c r="M16" t="n">
-        <v>77.2464805041507</v>
+        <v>77.24648050415067</v>
       </c>
       <c r="N16" t="n">
-        <v>75.40973185213534</v>
+        <v>75.40973185213532</v>
       </c>
       <c r="O16" t="n">
-        <v>69.65309278423334</v>
+        <v>69.65309278423332</v>
       </c>
       <c r="P16" t="n">
-        <v>59.60025382051966</v>
+        <v>59.60025382051965</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.26412642369264</v>
+        <v>41.26412642369263</v>
       </c>
       <c r="R16" t="n">
-        <v>22.15746056797131</v>
+        <v>22.1574605679713</v>
       </c>
       <c r="S16" t="n">
-        <v>8.587919916862312</v>
+        <v>8.58791991686231</v>
       </c>
       <c r="T16" t="n">
         <v>2.105541137676206</v>
@@ -32235,7 +32235,7 @@
         <v>42.35309618155441</v>
       </c>
       <c r="J17" t="n">
-        <v>93.24080402150844</v>
+        <v>93.24080402150841</v>
       </c>
       <c r="K17" t="n">
         <v>139.7437950432372</v>
@@ -32253,22 +32253,22 @@
         <v>185.098767505606</v>
       </c>
       <c r="P17" t="n">
-        <v>157.9775156546982</v>
+        <v>157.9775156546981</v>
       </c>
       <c r="Q17" t="n">
-        <v>118.6345351216091</v>
+        <v>118.634535121609</v>
       </c>
       <c r="R17" t="n">
-        <v>69.0088237601859</v>
+        <v>69.00882376018589</v>
       </c>
       <c r="S17" t="n">
         <v>25.0339453793443</v>
       </c>
       <c r="T17" t="n">
-        <v>4.809044252247049</v>
+        <v>4.809044252247048</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08788658827635949</v>
+        <v>0.08788658827635948</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5877933790204874</v>
+        <v>0.5877933790204873</v>
       </c>
       <c r="H18" t="n">
-        <v>5.676846581592604</v>
+        <v>5.676846581592602</v>
       </c>
       <c r="I18" t="n">
         <v>20.23762291802994</v>
       </c>
       <c r="J18" t="n">
-        <v>55.5335841117558</v>
+        <v>55.53358411175579</v>
       </c>
       <c r="K18" t="n">
-        <v>94.91574050612846</v>
+        <v>94.91574050612843</v>
       </c>
       <c r="L18" t="n">
         <v>127.6259264403914</v>
@@ -32332,10 +32332,10 @@
         <v>139.8509975075631</v>
       </c>
       <c r="P18" t="n">
-        <v>112.2427549815526</v>
+        <v>112.2427549815525</v>
       </c>
       <c r="Q18" t="n">
-        <v>75.03130922373802</v>
+        <v>75.03130922373801</v>
       </c>
       <c r="R18" t="n">
         <v>36.49475032199133</v>
@@ -32347,7 +32347,7 @@
         <v>2.369219804034332</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03867061704082156</v>
+        <v>0.03867061704082155</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,43 +32384,43 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4927862237114526</v>
+        <v>0.4927862237114525</v>
       </c>
       <c r="H19" t="n">
-        <v>4.381317516270918</v>
+        <v>4.381317516270917</v>
       </c>
       <c r="I19" t="n">
         <v>14.81942570943169</v>
       </c>
       <c r="J19" t="n">
-        <v>34.8399860163997</v>
+        <v>34.83998601639969</v>
       </c>
       <c r="K19" t="n">
-        <v>57.25279944574875</v>
+        <v>57.25279944574874</v>
       </c>
       <c r="L19" t="n">
-        <v>73.26387184160997</v>
+        <v>73.26387184160996</v>
       </c>
       <c r="M19" t="n">
-        <v>77.2464805041507</v>
+        <v>77.24648050415067</v>
       </c>
       <c r="N19" t="n">
-        <v>75.40973185213534</v>
+        <v>75.40973185213532</v>
       </c>
       <c r="O19" t="n">
-        <v>69.65309278423334</v>
+        <v>69.65309278423332</v>
       </c>
       <c r="P19" t="n">
-        <v>59.60025382051966</v>
+        <v>59.60025382051965</v>
       </c>
       <c r="Q19" t="n">
-        <v>41.26412642369264</v>
+        <v>41.26412642369263</v>
       </c>
       <c r="R19" t="n">
-        <v>22.15746056797131</v>
+        <v>22.1574605679713</v>
       </c>
       <c r="S19" t="n">
-        <v>8.587919916862312</v>
+        <v>8.58791991686231</v>
       </c>
       <c r="T19" t="n">
         <v>2.105541137676206</v>
@@ -32472,7 +32472,7 @@
         <v>42.35309618155441</v>
       </c>
       <c r="J20" t="n">
-        <v>93.24080402150844</v>
+        <v>93.24080402150841</v>
       </c>
       <c r="K20" t="n">
         <v>139.7437950432372</v>
@@ -32490,22 +32490,22 @@
         <v>185.098767505606</v>
       </c>
       <c r="P20" t="n">
-        <v>157.9775156546982</v>
+        <v>157.9775156546981</v>
       </c>
       <c r="Q20" t="n">
-        <v>118.6345351216091</v>
+        <v>118.634535121609</v>
       </c>
       <c r="R20" t="n">
-        <v>69.0088237601859</v>
+        <v>69.00882376018589</v>
       </c>
       <c r="S20" t="n">
         <v>25.0339453793443</v>
       </c>
       <c r="T20" t="n">
-        <v>4.809044252247049</v>
+        <v>4.809044252247048</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08788658827635949</v>
+        <v>0.08788658827635948</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5877933790204874</v>
+        <v>0.5877933790204873</v>
       </c>
       <c r="H21" t="n">
-        <v>5.676846581592604</v>
+        <v>5.676846581592602</v>
       </c>
       <c r="I21" t="n">
         <v>20.23762291802994</v>
       </c>
       <c r="J21" t="n">
-        <v>55.5335841117558</v>
+        <v>55.53358411175579</v>
       </c>
       <c r="K21" t="n">
-        <v>94.91574050612846</v>
+        <v>94.91574050612843</v>
       </c>
       <c r="L21" t="n">
         <v>127.6259264403914</v>
@@ -32569,10 +32569,10 @@
         <v>139.8509975075631</v>
       </c>
       <c r="P21" t="n">
-        <v>112.2427549815526</v>
+        <v>112.2427549815525</v>
       </c>
       <c r="Q21" t="n">
-        <v>75.03130922373802</v>
+        <v>75.03130922373801</v>
       </c>
       <c r="R21" t="n">
         <v>36.49475032199133</v>
@@ -32584,7 +32584,7 @@
         <v>2.369219804034332</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03867061704082156</v>
+        <v>0.03867061704082155</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,43 +32621,43 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4927862237114526</v>
+        <v>0.4927862237114525</v>
       </c>
       <c r="H22" t="n">
-        <v>4.381317516270918</v>
+        <v>4.381317516270917</v>
       </c>
       <c r="I22" t="n">
         <v>14.81942570943169</v>
       </c>
       <c r="J22" t="n">
-        <v>34.8399860163997</v>
+        <v>34.83998601639969</v>
       </c>
       <c r="K22" t="n">
-        <v>57.25279944574875</v>
+        <v>57.25279944574874</v>
       </c>
       <c r="L22" t="n">
-        <v>73.26387184160997</v>
+        <v>73.26387184160996</v>
       </c>
       <c r="M22" t="n">
-        <v>77.2464805041507</v>
+        <v>77.24648050415067</v>
       </c>
       <c r="N22" t="n">
-        <v>75.40973185213534</v>
+        <v>75.40973185213532</v>
       </c>
       <c r="O22" t="n">
-        <v>69.65309278423334</v>
+        <v>69.65309278423332</v>
       </c>
       <c r="P22" t="n">
-        <v>59.60025382051966</v>
+        <v>59.60025382051965</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.26412642369264</v>
+        <v>41.26412642369263</v>
       </c>
       <c r="R22" t="n">
-        <v>22.15746056797131</v>
+        <v>22.1574605679713</v>
       </c>
       <c r="S22" t="n">
-        <v>8.587919916862312</v>
+        <v>8.58791991686231</v>
       </c>
       <c r="T22" t="n">
         <v>2.105541137676206</v>
@@ -32709,7 +32709,7 @@
         <v>42.35309618155441</v>
       </c>
       <c r="J23" t="n">
-        <v>93.24080402150844</v>
+        <v>93.24080402150841</v>
       </c>
       <c r="K23" t="n">
         <v>139.7437950432372</v>
@@ -32727,22 +32727,22 @@
         <v>185.098767505606</v>
       </c>
       <c r="P23" t="n">
-        <v>157.9775156546982</v>
+        <v>157.9775156546981</v>
       </c>
       <c r="Q23" t="n">
-        <v>118.6345351216091</v>
+        <v>118.634535121609</v>
       </c>
       <c r="R23" t="n">
-        <v>69.0088237601859</v>
+        <v>69.00882376018589</v>
       </c>
       <c r="S23" t="n">
         <v>25.0339453793443</v>
       </c>
       <c r="T23" t="n">
-        <v>4.809044252247049</v>
+        <v>4.809044252247048</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08788658827635949</v>
+        <v>0.08788658827635948</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5877933790204874</v>
+        <v>0.5877933790204873</v>
       </c>
       <c r="H24" t="n">
-        <v>5.676846581592604</v>
+        <v>5.676846581592602</v>
       </c>
       <c r="I24" t="n">
         <v>20.23762291802994</v>
       </c>
       <c r="J24" t="n">
-        <v>55.5335841117558</v>
+        <v>55.53358411175579</v>
       </c>
       <c r="K24" t="n">
-        <v>94.91574050612846</v>
+        <v>94.91574050612843</v>
       </c>
       <c r="L24" t="n">
         <v>127.6259264403914</v>
@@ -32806,10 +32806,10 @@
         <v>139.8509975075631</v>
       </c>
       <c r="P24" t="n">
-        <v>112.2427549815526</v>
+        <v>112.2427549815525</v>
       </c>
       <c r="Q24" t="n">
-        <v>75.03130922373802</v>
+        <v>75.03130922373801</v>
       </c>
       <c r="R24" t="n">
         <v>36.49475032199133</v>
@@ -32821,7 +32821,7 @@
         <v>2.369219804034332</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03867061704082156</v>
+        <v>0.03867061704082155</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,43 +32858,43 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4927862237114526</v>
+        <v>0.4927862237114525</v>
       </c>
       <c r="H25" t="n">
-        <v>4.381317516270918</v>
+        <v>4.381317516270917</v>
       </c>
       <c r="I25" t="n">
         <v>14.81942570943169</v>
       </c>
       <c r="J25" t="n">
-        <v>34.8399860163997</v>
+        <v>34.83998601639969</v>
       </c>
       <c r="K25" t="n">
-        <v>57.25279944574875</v>
+        <v>57.25279944574874</v>
       </c>
       <c r="L25" t="n">
-        <v>73.26387184160997</v>
+        <v>73.26387184160996</v>
       </c>
       <c r="M25" t="n">
-        <v>77.2464805041507</v>
+        <v>77.24648050415067</v>
       </c>
       <c r="N25" t="n">
-        <v>75.40973185213534</v>
+        <v>75.40973185213532</v>
       </c>
       <c r="O25" t="n">
-        <v>69.65309278423334</v>
+        <v>69.65309278423332</v>
       </c>
       <c r="P25" t="n">
-        <v>59.60025382051966</v>
+        <v>59.60025382051965</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.26412642369264</v>
+        <v>41.26412642369263</v>
       </c>
       <c r="R25" t="n">
-        <v>22.15746056797131</v>
+        <v>22.1574605679713</v>
       </c>
       <c r="S25" t="n">
-        <v>8.587919916862312</v>
+        <v>8.58791991686231</v>
       </c>
       <c r="T25" t="n">
         <v>2.105541137676206</v>
@@ -32946,7 +32946,7 @@
         <v>42.35309618155441</v>
       </c>
       <c r="J26" t="n">
-        <v>93.24080402150844</v>
+        <v>93.24080402150841</v>
       </c>
       <c r="K26" t="n">
         <v>139.7437950432372</v>
@@ -32964,22 +32964,22 @@
         <v>185.098767505606</v>
       </c>
       <c r="P26" t="n">
-        <v>157.9775156546982</v>
+        <v>157.9775156546981</v>
       </c>
       <c r="Q26" t="n">
-        <v>118.6345351216091</v>
+        <v>118.634535121609</v>
       </c>
       <c r="R26" t="n">
-        <v>69.0088237601859</v>
+        <v>69.00882376018589</v>
       </c>
       <c r="S26" t="n">
         <v>25.0339453793443</v>
       </c>
       <c r="T26" t="n">
-        <v>4.809044252247049</v>
+        <v>4.809044252247048</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08788658827635949</v>
+        <v>0.08788658827635948</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5877933790204874</v>
+        <v>0.5877933790204873</v>
       </c>
       <c r="H27" t="n">
-        <v>5.676846581592604</v>
+        <v>5.676846581592602</v>
       </c>
       <c r="I27" t="n">
         <v>20.23762291802994</v>
       </c>
       <c r="J27" t="n">
-        <v>55.5335841117558</v>
+        <v>55.53358411175579</v>
       </c>
       <c r="K27" t="n">
-        <v>94.91574050612846</v>
+        <v>94.91574050612843</v>
       </c>
       <c r="L27" t="n">
         <v>127.6259264403914</v>
@@ -33043,10 +33043,10 @@
         <v>139.8509975075631</v>
       </c>
       <c r="P27" t="n">
-        <v>112.2427549815526</v>
+        <v>112.2427549815525</v>
       </c>
       <c r="Q27" t="n">
-        <v>75.03130922373802</v>
+        <v>75.03130922373801</v>
       </c>
       <c r="R27" t="n">
         <v>36.49475032199133</v>
@@ -33058,7 +33058,7 @@
         <v>2.369219804034332</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03867061704082156</v>
+        <v>0.03867061704082155</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,43 +33095,43 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4927862237114526</v>
+        <v>0.4927862237114525</v>
       </c>
       <c r="H28" t="n">
-        <v>4.381317516270918</v>
+        <v>4.381317516270917</v>
       </c>
       <c r="I28" t="n">
         <v>14.81942570943169</v>
       </c>
       <c r="J28" t="n">
-        <v>34.8399860163997</v>
+        <v>34.83998601639969</v>
       </c>
       <c r="K28" t="n">
-        <v>57.25279944574875</v>
+        <v>57.25279944574874</v>
       </c>
       <c r="L28" t="n">
-        <v>73.26387184160997</v>
+        <v>73.26387184160996</v>
       </c>
       <c r="M28" t="n">
-        <v>77.2464805041507</v>
+        <v>77.24648050415067</v>
       </c>
       <c r="N28" t="n">
-        <v>75.40973185213534</v>
+        <v>75.40973185213532</v>
       </c>
       <c r="O28" t="n">
-        <v>69.65309278423334</v>
+        <v>69.65309278423332</v>
       </c>
       <c r="P28" t="n">
-        <v>59.60025382051966</v>
+        <v>59.60025382051965</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.26412642369264</v>
+        <v>41.26412642369263</v>
       </c>
       <c r="R28" t="n">
-        <v>22.15746056797131</v>
+        <v>22.1574605679713</v>
       </c>
       <c r="S28" t="n">
-        <v>8.587919916862312</v>
+        <v>8.58791991686231</v>
       </c>
       <c r="T28" t="n">
         <v>2.105541137676206</v>
@@ -33183,7 +33183,7 @@
         <v>42.35309618155441</v>
       </c>
       <c r="J29" t="n">
-        <v>93.24080402150844</v>
+        <v>93.24080402150841</v>
       </c>
       <c r="K29" t="n">
         <v>139.7437950432372</v>
@@ -33201,22 +33201,22 @@
         <v>185.098767505606</v>
       </c>
       <c r="P29" t="n">
-        <v>157.9775156546982</v>
+        <v>157.9775156546981</v>
       </c>
       <c r="Q29" t="n">
-        <v>118.6345351216091</v>
+        <v>118.634535121609</v>
       </c>
       <c r="R29" t="n">
-        <v>69.0088237601859</v>
+        <v>69.00882376018589</v>
       </c>
       <c r="S29" t="n">
         <v>25.0339453793443</v>
       </c>
       <c r="T29" t="n">
-        <v>4.809044252247049</v>
+        <v>4.809044252247048</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08788658827635949</v>
+        <v>0.08788658827635948</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5877933790204874</v>
+        <v>0.5877933790204873</v>
       </c>
       <c r="H30" t="n">
-        <v>5.676846581592604</v>
+        <v>5.676846581592602</v>
       </c>
       <c r="I30" t="n">
         <v>20.23762291802994</v>
       </c>
       <c r="J30" t="n">
-        <v>55.5335841117558</v>
+        <v>55.53358411175579</v>
       </c>
       <c r="K30" t="n">
-        <v>94.91574050612846</v>
+        <v>94.91574050612843</v>
       </c>
       <c r="L30" t="n">
         <v>127.6259264403914</v>
@@ -33280,10 +33280,10 @@
         <v>139.8509975075631</v>
       </c>
       <c r="P30" t="n">
-        <v>112.2427549815526</v>
+        <v>112.2427549815525</v>
       </c>
       <c r="Q30" t="n">
-        <v>75.03130922373802</v>
+        <v>75.03130922373801</v>
       </c>
       <c r="R30" t="n">
         <v>36.49475032199133</v>
@@ -33295,7 +33295,7 @@
         <v>2.369219804034332</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03867061704082156</v>
+        <v>0.03867061704082155</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,43 +33332,43 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4927862237114526</v>
+        <v>0.4927862237114525</v>
       </c>
       <c r="H31" t="n">
-        <v>4.381317516270918</v>
+        <v>4.381317516270917</v>
       </c>
       <c r="I31" t="n">
         <v>14.81942570943169</v>
       </c>
       <c r="J31" t="n">
-        <v>34.8399860163997</v>
+        <v>34.83998601639969</v>
       </c>
       <c r="K31" t="n">
-        <v>57.25279944574875</v>
+        <v>57.25279944574874</v>
       </c>
       <c r="L31" t="n">
-        <v>73.26387184160997</v>
+        <v>73.26387184160996</v>
       </c>
       <c r="M31" t="n">
-        <v>77.2464805041507</v>
+        <v>77.24648050415067</v>
       </c>
       <c r="N31" t="n">
-        <v>75.40973185213534</v>
+        <v>75.40973185213532</v>
       </c>
       <c r="O31" t="n">
-        <v>69.65309278423334</v>
+        <v>69.65309278423332</v>
       </c>
       <c r="P31" t="n">
-        <v>59.60025382051966</v>
+        <v>59.60025382051965</v>
       </c>
       <c r="Q31" t="n">
-        <v>41.26412642369264</v>
+        <v>41.26412642369263</v>
       </c>
       <c r="R31" t="n">
-        <v>22.15746056797131</v>
+        <v>22.1574605679713</v>
       </c>
       <c r="S31" t="n">
-        <v>8.587919916862312</v>
+        <v>8.58791991686231</v>
       </c>
       <c r="T31" t="n">
         <v>2.105541137676206</v>
@@ -33420,7 +33420,7 @@
         <v>42.35309618155441</v>
       </c>
       <c r="J32" t="n">
-        <v>93.24080402150844</v>
+        <v>93.24080402150841</v>
       </c>
       <c r="K32" t="n">
         <v>139.7437950432372</v>
@@ -33438,22 +33438,22 @@
         <v>185.098767505606</v>
       </c>
       <c r="P32" t="n">
-        <v>157.9775156546982</v>
+        <v>157.9775156546981</v>
       </c>
       <c r="Q32" t="n">
-        <v>118.6345351216091</v>
+        <v>118.634535121609</v>
       </c>
       <c r="R32" t="n">
-        <v>69.0088237601859</v>
+        <v>69.00882376018589</v>
       </c>
       <c r="S32" t="n">
         <v>25.0339453793443</v>
       </c>
       <c r="T32" t="n">
-        <v>4.809044252247049</v>
+        <v>4.809044252247048</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08788658827635949</v>
+        <v>0.08788658827635948</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5877933790204874</v>
+        <v>0.5877933790204873</v>
       </c>
       <c r="H33" t="n">
-        <v>5.676846581592604</v>
+        <v>5.676846581592602</v>
       </c>
       <c r="I33" t="n">
         <v>20.23762291802994</v>
       </c>
       <c r="J33" t="n">
-        <v>55.5335841117558</v>
+        <v>55.53358411175579</v>
       </c>
       <c r="K33" t="n">
-        <v>94.91574050612846</v>
+        <v>94.91574050612843</v>
       </c>
       <c r="L33" t="n">
         <v>127.6259264403914</v>
@@ -33517,10 +33517,10 @@
         <v>139.8509975075631</v>
       </c>
       <c r="P33" t="n">
-        <v>112.2427549815526</v>
+        <v>112.2427549815525</v>
       </c>
       <c r="Q33" t="n">
-        <v>75.03130922373802</v>
+        <v>75.03130922373801</v>
       </c>
       <c r="R33" t="n">
         <v>36.49475032199133</v>
@@ -33532,7 +33532,7 @@
         <v>2.369219804034332</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03867061704082156</v>
+        <v>0.03867061704082155</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,43 +33569,43 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4927862237114526</v>
+        <v>0.4927862237114525</v>
       </c>
       <c r="H34" t="n">
-        <v>4.381317516270918</v>
+        <v>4.381317516270917</v>
       </c>
       <c r="I34" t="n">
         <v>14.81942570943169</v>
       </c>
       <c r="J34" t="n">
-        <v>34.8399860163997</v>
+        <v>34.83998601639969</v>
       </c>
       <c r="K34" t="n">
-        <v>57.25279944574875</v>
+        <v>57.25279944574874</v>
       </c>
       <c r="L34" t="n">
-        <v>73.26387184160997</v>
+        <v>73.26387184160996</v>
       </c>
       <c r="M34" t="n">
-        <v>77.2464805041507</v>
+        <v>77.24648050415067</v>
       </c>
       <c r="N34" t="n">
-        <v>75.40973185213534</v>
+        <v>75.40973185213532</v>
       </c>
       <c r="O34" t="n">
-        <v>69.65309278423334</v>
+        <v>69.65309278423332</v>
       </c>
       <c r="P34" t="n">
-        <v>59.60025382051966</v>
+        <v>59.60025382051965</v>
       </c>
       <c r="Q34" t="n">
-        <v>41.26412642369264</v>
+        <v>41.26412642369263</v>
       </c>
       <c r="R34" t="n">
-        <v>22.15746056797131</v>
+        <v>22.1574605679713</v>
       </c>
       <c r="S34" t="n">
-        <v>8.587919916862312</v>
+        <v>8.58791991686231</v>
       </c>
       <c r="T34" t="n">
         <v>2.105541137676206</v>
@@ -33657,7 +33657,7 @@
         <v>42.35309618155441</v>
       </c>
       <c r="J35" t="n">
-        <v>93.24080402150844</v>
+        <v>93.24080402150841</v>
       </c>
       <c r="K35" t="n">
         <v>139.7437950432372</v>
@@ -33675,22 +33675,22 @@
         <v>185.098767505606</v>
       </c>
       <c r="P35" t="n">
-        <v>157.9775156546982</v>
+        <v>157.9775156546981</v>
       </c>
       <c r="Q35" t="n">
-        <v>118.6345351216091</v>
+        <v>118.634535121609</v>
       </c>
       <c r="R35" t="n">
-        <v>69.0088237601859</v>
+        <v>69.00882376018589</v>
       </c>
       <c r="S35" t="n">
         <v>25.0339453793443</v>
       </c>
       <c r="T35" t="n">
-        <v>4.809044252247049</v>
+        <v>4.809044252247048</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08788658827635949</v>
+        <v>0.08788658827635948</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5877933790204874</v>
+        <v>0.5877933790204873</v>
       </c>
       <c r="H36" t="n">
-        <v>5.676846581592604</v>
+        <v>5.676846581592602</v>
       </c>
       <c r="I36" t="n">
         <v>20.23762291802994</v>
       </c>
       <c r="J36" t="n">
-        <v>55.5335841117558</v>
+        <v>55.53358411175579</v>
       </c>
       <c r="K36" t="n">
-        <v>94.91574050612846</v>
+        <v>94.91574050612843</v>
       </c>
       <c r="L36" t="n">
         <v>127.6259264403914</v>
@@ -33754,10 +33754,10 @@
         <v>139.8509975075631</v>
       </c>
       <c r="P36" t="n">
-        <v>112.2427549815526</v>
+        <v>112.2427549815525</v>
       </c>
       <c r="Q36" t="n">
-        <v>75.03130922373802</v>
+        <v>75.03130922373801</v>
       </c>
       <c r="R36" t="n">
         <v>36.49475032199133</v>
@@ -33769,7 +33769,7 @@
         <v>2.369219804034332</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03867061704082156</v>
+        <v>0.03867061704082155</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,43 +33806,43 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4927862237114526</v>
+        <v>0.4927862237114525</v>
       </c>
       <c r="H37" t="n">
-        <v>4.381317516270918</v>
+        <v>4.381317516270917</v>
       </c>
       <c r="I37" t="n">
         <v>14.81942570943169</v>
       </c>
       <c r="J37" t="n">
-        <v>34.8399860163997</v>
+        <v>34.83998601639969</v>
       </c>
       <c r="K37" t="n">
-        <v>57.25279944574875</v>
+        <v>57.25279944574874</v>
       </c>
       <c r="L37" t="n">
-        <v>73.26387184160997</v>
+        <v>73.26387184160996</v>
       </c>
       <c r="M37" t="n">
-        <v>77.2464805041507</v>
+        <v>77.24648050415067</v>
       </c>
       <c r="N37" t="n">
-        <v>75.40973185213534</v>
+        <v>75.40973185213532</v>
       </c>
       <c r="O37" t="n">
-        <v>69.65309278423334</v>
+        <v>69.65309278423332</v>
       </c>
       <c r="P37" t="n">
-        <v>59.60025382051966</v>
+        <v>59.60025382051965</v>
       </c>
       <c r="Q37" t="n">
-        <v>41.26412642369264</v>
+        <v>41.26412642369263</v>
       </c>
       <c r="R37" t="n">
-        <v>22.15746056797131</v>
+        <v>22.1574605679713</v>
       </c>
       <c r="S37" t="n">
-        <v>8.587919916862312</v>
+        <v>8.58791991686231</v>
       </c>
       <c r="T37" t="n">
         <v>2.105541137676206</v>
@@ -33894,7 +33894,7 @@
         <v>42.35309618155441</v>
       </c>
       <c r="J38" t="n">
-        <v>93.24080402150844</v>
+        <v>93.24080402150841</v>
       </c>
       <c r="K38" t="n">
         <v>139.7437950432372</v>
@@ -33912,22 +33912,22 @@
         <v>185.098767505606</v>
       </c>
       <c r="P38" t="n">
-        <v>157.9775156546982</v>
+        <v>157.9775156546981</v>
       </c>
       <c r="Q38" t="n">
-        <v>118.6345351216091</v>
+        <v>118.634535121609</v>
       </c>
       <c r="R38" t="n">
-        <v>69.0088237601859</v>
+        <v>69.00882376018589</v>
       </c>
       <c r="S38" t="n">
         <v>25.0339453793443</v>
       </c>
       <c r="T38" t="n">
-        <v>4.809044252247049</v>
+        <v>4.809044252247048</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08788658827635949</v>
+        <v>0.08788658827635948</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5877933790204874</v>
+        <v>0.5877933790204873</v>
       </c>
       <c r="H39" t="n">
-        <v>5.676846581592604</v>
+        <v>5.676846581592602</v>
       </c>
       <c r="I39" t="n">
         <v>20.23762291802994</v>
       </c>
       <c r="J39" t="n">
-        <v>55.5335841117558</v>
+        <v>55.53358411175579</v>
       </c>
       <c r="K39" t="n">
-        <v>94.91574050612846</v>
+        <v>94.91574050612843</v>
       </c>
       <c r="L39" t="n">
         <v>127.6259264403914</v>
@@ -33991,10 +33991,10 @@
         <v>139.8509975075631</v>
       </c>
       <c r="P39" t="n">
-        <v>112.2427549815526</v>
+        <v>112.2427549815525</v>
       </c>
       <c r="Q39" t="n">
-        <v>75.03130922373802</v>
+        <v>75.03130922373801</v>
       </c>
       <c r="R39" t="n">
         <v>36.49475032199133</v>
@@ -34006,7 +34006,7 @@
         <v>2.369219804034332</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03867061704082156</v>
+        <v>0.03867061704082155</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,43 +34043,43 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4927862237114526</v>
+        <v>0.4927862237114525</v>
       </c>
       <c r="H40" t="n">
-        <v>4.381317516270918</v>
+        <v>4.381317516270917</v>
       </c>
       <c r="I40" t="n">
         <v>14.81942570943169</v>
       </c>
       <c r="J40" t="n">
-        <v>34.8399860163997</v>
+        <v>34.83998601639969</v>
       </c>
       <c r="K40" t="n">
-        <v>57.25279944574875</v>
+        <v>57.25279944574874</v>
       </c>
       <c r="L40" t="n">
-        <v>73.26387184160997</v>
+        <v>73.26387184160996</v>
       </c>
       <c r="M40" t="n">
-        <v>77.2464805041507</v>
+        <v>77.24648050415067</v>
       </c>
       <c r="N40" t="n">
-        <v>75.40973185213534</v>
+        <v>75.40973185213532</v>
       </c>
       <c r="O40" t="n">
-        <v>69.65309278423334</v>
+        <v>69.65309278423332</v>
       </c>
       <c r="P40" t="n">
-        <v>59.60025382051966</v>
+        <v>59.60025382051965</v>
       </c>
       <c r="Q40" t="n">
-        <v>41.26412642369264</v>
+        <v>41.26412642369263</v>
       </c>
       <c r="R40" t="n">
-        <v>22.15746056797131</v>
+        <v>22.1574605679713</v>
       </c>
       <c r="S40" t="n">
-        <v>8.587919916862312</v>
+        <v>8.58791991686231</v>
       </c>
       <c r="T40" t="n">
         <v>2.105541137676206</v>
@@ -34131,7 +34131,7 @@
         <v>42.35309618155441</v>
       </c>
       <c r="J41" t="n">
-        <v>93.24080402150844</v>
+        <v>93.24080402150841</v>
       </c>
       <c r="K41" t="n">
         <v>139.7437950432372</v>
@@ -34149,22 +34149,22 @@
         <v>185.098767505606</v>
       </c>
       <c r="P41" t="n">
-        <v>157.9775156546982</v>
+        <v>157.9775156546981</v>
       </c>
       <c r="Q41" t="n">
-        <v>118.6345351216091</v>
+        <v>118.634535121609</v>
       </c>
       <c r="R41" t="n">
-        <v>69.0088237601859</v>
+        <v>69.00882376018589</v>
       </c>
       <c r="S41" t="n">
         <v>25.0339453793443</v>
       </c>
       <c r="T41" t="n">
-        <v>4.809044252247049</v>
+        <v>4.809044252247048</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08788658827635949</v>
+        <v>0.08788658827635948</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5877933790204874</v>
+        <v>0.5877933790204873</v>
       </c>
       <c r="H42" t="n">
-        <v>5.676846581592604</v>
+        <v>5.676846581592602</v>
       </c>
       <c r="I42" t="n">
         <v>20.23762291802994</v>
       </c>
       <c r="J42" t="n">
-        <v>55.5335841117558</v>
+        <v>55.53358411175579</v>
       </c>
       <c r="K42" t="n">
-        <v>94.91574050612846</v>
+        <v>94.91574050612843</v>
       </c>
       <c r="L42" t="n">
         <v>127.6259264403914</v>
@@ -34228,10 +34228,10 @@
         <v>139.8509975075631</v>
       </c>
       <c r="P42" t="n">
-        <v>112.2427549815526</v>
+        <v>112.2427549815525</v>
       </c>
       <c r="Q42" t="n">
-        <v>75.03130922373802</v>
+        <v>75.03130922373801</v>
       </c>
       <c r="R42" t="n">
         <v>36.49475032199133</v>
@@ -34243,7 +34243,7 @@
         <v>2.369219804034332</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03867061704082156</v>
+        <v>0.03867061704082155</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,43 +34280,43 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4927862237114526</v>
+        <v>0.4927862237114525</v>
       </c>
       <c r="H43" t="n">
-        <v>4.381317516270918</v>
+        <v>4.381317516270917</v>
       </c>
       <c r="I43" t="n">
         <v>14.81942570943169</v>
       </c>
       <c r="J43" t="n">
-        <v>34.8399860163997</v>
+        <v>34.83998601639969</v>
       </c>
       <c r="K43" t="n">
-        <v>57.25279944574875</v>
+        <v>57.25279944574874</v>
       </c>
       <c r="L43" t="n">
-        <v>73.26387184160997</v>
+        <v>73.26387184160996</v>
       </c>
       <c r="M43" t="n">
-        <v>77.2464805041507</v>
+        <v>77.24648050415067</v>
       </c>
       <c r="N43" t="n">
-        <v>75.40973185213534</v>
+        <v>75.40973185213532</v>
       </c>
       <c r="O43" t="n">
-        <v>69.65309278423334</v>
+        <v>69.65309278423332</v>
       </c>
       <c r="P43" t="n">
-        <v>59.60025382051966</v>
+        <v>59.60025382051965</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.26412642369264</v>
+        <v>41.26412642369263</v>
       </c>
       <c r="R43" t="n">
-        <v>22.15746056797131</v>
+        <v>22.1574605679713</v>
       </c>
       <c r="S43" t="n">
-        <v>8.587919916862312</v>
+        <v>8.58791991686231</v>
       </c>
       <c r="T43" t="n">
         <v>2.105541137676206</v>
@@ -34368,7 +34368,7 @@
         <v>42.35309618155441</v>
       </c>
       <c r="J44" t="n">
-        <v>93.24080402150844</v>
+        <v>93.24080402150841</v>
       </c>
       <c r="K44" t="n">
         <v>139.7437950432372</v>
@@ -34386,22 +34386,22 @@
         <v>185.098767505606</v>
       </c>
       <c r="P44" t="n">
-        <v>157.9775156546982</v>
+        <v>157.9775156546981</v>
       </c>
       <c r="Q44" t="n">
-        <v>118.6345351216091</v>
+        <v>118.634535121609</v>
       </c>
       <c r="R44" t="n">
-        <v>69.0088237601859</v>
+        <v>69.00882376018589</v>
       </c>
       <c r="S44" t="n">
         <v>25.0339453793443</v>
       </c>
       <c r="T44" t="n">
-        <v>4.809044252247049</v>
+        <v>4.809044252247048</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08788658827635949</v>
+        <v>0.08788658827635948</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5877933790204874</v>
+        <v>0.5877933790204873</v>
       </c>
       <c r="H45" t="n">
-        <v>5.676846581592604</v>
+        <v>5.676846581592602</v>
       </c>
       <c r="I45" t="n">
         <v>20.23762291802994</v>
       </c>
       <c r="J45" t="n">
-        <v>55.5335841117558</v>
+        <v>55.53358411175579</v>
       </c>
       <c r="K45" t="n">
-        <v>94.91574050612846</v>
+        <v>94.91574050612843</v>
       </c>
       <c r="L45" t="n">
         <v>127.6259264403914</v>
@@ -34465,10 +34465,10 @@
         <v>139.8509975075631</v>
       </c>
       <c r="P45" t="n">
-        <v>112.2427549815526</v>
+        <v>112.2427549815525</v>
       </c>
       <c r="Q45" t="n">
-        <v>75.03130922373802</v>
+        <v>75.03130922373801</v>
       </c>
       <c r="R45" t="n">
         <v>36.49475032199133</v>
@@ -34480,7 +34480,7 @@
         <v>2.369219804034332</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03867061704082156</v>
+        <v>0.03867061704082155</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,43 +34517,43 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4927862237114526</v>
+        <v>0.4927862237114525</v>
       </c>
       <c r="H46" t="n">
-        <v>4.381317516270918</v>
+        <v>4.381317516270917</v>
       </c>
       <c r="I46" t="n">
         <v>14.81942570943169</v>
       </c>
       <c r="J46" t="n">
-        <v>34.8399860163997</v>
+        <v>34.83998601639969</v>
       </c>
       <c r="K46" t="n">
-        <v>57.25279944574875</v>
+        <v>57.25279944574874</v>
       </c>
       <c r="L46" t="n">
-        <v>73.26387184160997</v>
+        <v>73.26387184160996</v>
       </c>
       <c r="M46" t="n">
-        <v>77.2464805041507</v>
+        <v>77.24648050415067</v>
       </c>
       <c r="N46" t="n">
-        <v>75.40973185213534</v>
+        <v>75.40973185213532</v>
       </c>
       <c r="O46" t="n">
-        <v>69.65309278423334</v>
+        <v>69.65309278423332</v>
       </c>
       <c r="P46" t="n">
-        <v>59.60025382051966</v>
+        <v>59.60025382051965</v>
       </c>
       <c r="Q46" t="n">
-        <v>41.26412642369264</v>
+        <v>41.26412642369263</v>
       </c>
       <c r="R46" t="n">
-        <v>22.15746056797131</v>
+        <v>22.1574605679713</v>
       </c>
       <c r="S46" t="n">
-        <v>8.587919916862312</v>
+        <v>8.58791991686231</v>
       </c>
       <c r="T46" t="n">
         <v>2.105541137676206</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34780,7 +34780,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P5" t="n">
         <v>236.2898988798406</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>58.38468441396105</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O8" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35257,25 +35257,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>79.31589866453203</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N10" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.94047470242302</v>
+        <v>41.94047470242301</v>
       </c>
       <c r="J11" t="n">
         <v>532.8920034689003</v>
       </c>
       <c r="K11" t="n">
-        <v>139.7437950432372</v>
+        <v>753.9548093211656</v>
       </c>
       <c r="L11" t="n">
-        <v>173.3645347427702</v>
+        <v>566.0625510479013</v>
       </c>
       <c r="M11" t="n">
-        <v>192.9014486710165</v>
+        <v>192.9014486710166</v>
       </c>
       <c r="N11" t="n">
         <v>196.0227957827692</v>
       </c>
       <c r="O11" t="n">
-        <v>185.098767505606</v>
+        <v>185.0987675056058</v>
       </c>
       <c r="P11" t="n">
-        <v>612.8675705220051</v>
+        <v>157.977515654698</v>
       </c>
       <c r="Q11" t="n">
-        <v>670.6535108373614</v>
+        <v>118.6345351216091</v>
       </c>
       <c r="R11" t="n">
         <v>239.8715154299402</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.23762291802993</v>
+        <v>46.56456550435075</v>
       </c>
       <c r="J12" t="n">
-        <v>55.5335841117558</v>
+        <v>383.3702759968187</v>
       </c>
       <c r="K12" t="n">
-        <v>149.5141637098033</v>
+        <v>94.91574050612843</v>
       </c>
       <c r="L12" t="n">
         <v>127.6259264403914</v>
@@ -35506,13 +35506,13 @@
         <v>139.8509975075631</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9548093211655</v>
+        <v>112.2427549815525</v>
       </c>
       <c r="Q12" t="n">
-        <v>75.03130922373794</v>
+        <v>298.8218107862081</v>
       </c>
       <c r="R12" t="n">
-        <v>36.49475032199143</v>
+        <v>154.8510918314255</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.8399860163997</v>
+        <v>34.83998601639968</v>
       </c>
       <c r="K13" t="n">
-        <v>275.022560858842</v>
+        <v>334.7865919418452</v>
       </c>
       <c r="L13" t="n">
-        <v>495.6980958496515</v>
+        <v>495.6980958496514</v>
       </c>
       <c r="M13" t="n">
         <v>541.3715988687093</v>
@@ -35582,16 +35582,16 @@
         <v>522.1357956477359</v>
       </c>
       <c r="O13" t="n">
-        <v>493.5614253355277</v>
+        <v>493.5614253355275</v>
       </c>
       <c r="P13" t="n">
-        <v>410.6173184370268</v>
+        <v>410.6173184370264</v>
       </c>
       <c r="Q13" t="n">
-        <v>211.1558182058466</v>
+        <v>151.3917871228441</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9538174862894735</v>
+        <v>0.9538174862894664</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.94047470242302</v>
+        <v>41.94047470242301</v>
       </c>
       <c r="J14" t="n">
-        <v>93.24080402150845</v>
+        <v>532.8920034689003</v>
       </c>
       <c r="K14" t="n">
-        <v>753.9548093211654</v>
+        <v>139.7437950432371</v>
       </c>
       <c r="L14" t="n">
-        <v>173.3645347427703</v>
+        <v>173.3645347427702</v>
       </c>
       <c r="M14" t="n">
         <v>192.9014486710166</v>
@@ -35661,16 +35661,16 @@
         <v>196.0227957827692</v>
       </c>
       <c r="O14" t="n">
-        <v>753.9548093211656</v>
+        <v>185.098767505606</v>
       </c>
       <c r="P14" t="n">
-        <v>592.3333812614155</v>
+        <v>612.8675705220055</v>
       </c>
       <c r="Q14" t="n">
-        <v>118.6345351216091</v>
+        <v>670.653510837361</v>
       </c>
       <c r="R14" t="n">
-        <v>69.00882376018581</v>
+        <v>239.8715154299402</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>46.56456550435076</v>
+        <v>46.56456550435075</v>
       </c>
       <c r="J15" t="n">
-        <v>383.3702759968188</v>
+        <v>383.3702759968187</v>
       </c>
       <c r="K15" t="n">
-        <v>94.91574050612849</v>
+        <v>318.7062420685987</v>
       </c>
       <c r="L15" t="n">
         <v>127.6259264403914</v>
@@ -35737,16 +35737,16 @@
         <v>148.933436429884</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8752613269118</v>
+        <v>152.8752613269116</v>
       </c>
       <c r="O15" t="n">
-        <v>139.850997507563</v>
+        <v>139.8509975075631</v>
       </c>
       <c r="P15" t="n">
         <v>112.2427549815525</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.8218107862081</v>
+        <v>75.03130922373794</v>
       </c>
       <c r="R15" t="n">
         <v>154.8510918314255</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.8399860163997</v>
+        <v>122.2942134554803</v>
       </c>
       <c r="K16" t="n">
         <v>334.7865919418453</v>
@@ -35813,22 +35813,22 @@
         <v>495.6980958496515</v>
       </c>
       <c r="M16" t="n">
-        <v>541.3715988687094</v>
+        <v>541.3715988687093</v>
       </c>
       <c r="N16" t="n">
-        <v>522.1357956477359</v>
+        <v>522.1357956477361</v>
       </c>
       <c r="O16" t="n">
-        <v>493.5614253355277</v>
+        <v>493.5614253355279</v>
       </c>
       <c r="P16" t="n">
-        <v>410.6173184370268</v>
+        <v>410.6173184370264</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.3917871228432</v>
+        <v>63.93755968376263</v>
       </c>
       <c r="R16" t="n">
-        <v>0.9538174862894735</v>
+        <v>0.9538174862894664</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.94047470242302</v>
+        <v>41.94047470242301</v>
       </c>
       <c r="J17" t="n">
         <v>532.8920034689003</v>
       </c>
       <c r="K17" t="n">
-        <v>139.7437950432372</v>
+        <v>139.7437950432371</v>
       </c>
       <c r="L17" t="n">
-        <v>173.3645347427702</v>
+        <v>619.2202046756807</v>
       </c>
       <c r="M17" t="n">
-        <v>192.9014486710165</v>
+        <v>753.9548093211656</v>
       </c>
       <c r="N17" t="n">
         <v>196.0227957827692</v>
       </c>
       <c r="O17" t="n">
-        <v>185.098767505606</v>
+        <v>185.0987675056058</v>
       </c>
       <c r="P17" t="n">
-        <v>612.8675705220051</v>
+        <v>157.977515654698</v>
       </c>
       <c r="Q17" t="n">
-        <v>670.6535108373614</v>
+        <v>118.6345351216091</v>
       </c>
       <c r="R17" t="n">
         <v>239.8715154299402</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>46.56456550435076</v>
+        <v>46.56456550435075</v>
       </c>
       <c r="J18" t="n">
-        <v>383.3702759968188</v>
+        <v>66.47805025368585</v>
       </c>
       <c r="K18" t="n">
-        <v>94.91574050612849</v>
+        <v>753.9548093211655</v>
       </c>
       <c r="L18" t="n">
         <v>127.6259264403914</v>
       </c>
       <c r="M18" t="n">
-        <v>148.933436429884</v>
+        <v>148.9334364298841</v>
       </c>
       <c r="N18" t="n">
-        <v>152.8752613269118</v>
+        <v>152.8752613269116</v>
       </c>
       <c r="O18" t="n">
-        <v>139.850997507563</v>
+        <v>139.8509975075631</v>
       </c>
       <c r="P18" t="n">
         <v>112.2427549815525</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.8218107862081</v>
+        <v>75.03130922373794</v>
       </c>
       <c r="R18" t="n">
-        <v>154.8510918314255</v>
+        <v>36.49475032199143</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.8399860163997</v>
+        <v>122.2942134554803</v>
       </c>
       <c r="K19" t="n">
-        <v>275.022560858842</v>
+        <v>334.7865919418453</v>
       </c>
       <c r="L19" t="n">
         <v>495.6980958496515</v>
       </c>
       <c r="M19" t="n">
-        <v>541.3715988687093</v>
+        <v>394.1533403466258</v>
       </c>
       <c r="N19" t="n">
         <v>522.1357956477359</v>
@@ -36059,13 +36059,13 @@
         <v>493.5614253355277</v>
       </c>
       <c r="P19" t="n">
-        <v>410.6173184370268</v>
+        <v>410.6173184370264</v>
       </c>
       <c r="Q19" t="n">
         <v>211.1558182058466</v>
       </c>
       <c r="R19" t="n">
-        <v>0.9538174862894735</v>
+        <v>0.9538174862894664</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.94047470242302</v>
+        <v>41.94047470242301</v>
       </c>
       <c r="J20" t="n">
         <v>532.8920034689003</v>
       </c>
       <c r="K20" t="n">
-        <v>139.7437950432372</v>
+        <v>139.7437950432371</v>
       </c>
       <c r="L20" t="n">
         <v>173.3645347427702</v>
       </c>
       <c r="M20" t="n">
-        <v>192.9014486710165</v>
+        <v>192.9014486710166</v>
       </c>
       <c r="N20" t="n">
         <v>196.0227957827692</v>
@@ -36138,10 +36138,10 @@
         <v>185.098767505606</v>
       </c>
       <c r="P20" t="n">
-        <v>612.8675705220051</v>
+        <v>612.8675705220055</v>
       </c>
       <c r="Q20" t="n">
-        <v>670.6535108373614</v>
+        <v>670.653510837361</v>
       </c>
       <c r="R20" t="n">
         <v>239.8715154299402</v>
@@ -36199,7 +36199,7 @@
         <v>46.56456550435075</v>
       </c>
       <c r="J21" t="n">
-        <v>179.3161709555151</v>
+        <v>383.3702759968187</v>
       </c>
       <c r="K21" t="n">
         <v>94.91574050612843</v>
@@ -36217,13 +36217,13 @@
         <v>139.8509975075631</v>
       </c>
       <c r="P21" t="n">
-        <v>112.2427549815526</v>
+        <v>112.2427549815525</v>
       </c>
       <c r="Q21" t="n">
-        <v>621.2322573369456</v>
+        <v>298.8218107862081</v>
       </c>
       <c r="R21" t="n">
-        <v>36.49475032199143</v>
+        <v>154.8510918314255</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.8399860163997</v>
+        <v>122.2942134554803</v>
       </c>
       <c r="K22" t="n">
         <v>334.7865919418453</v>
@@ -36287,22 +36287,22 @@
         <v>495.6980958496515</v>
       </c>
       <c r="M22" t="n">
-        <v>541.3715988687094</v>
+        <v>541.3715988687093</v>
       </c>
       <c r="N22" t="n">
-        <v>522.1357956477359</v>
+        <v>522.1357956477361</v>
       </c>
       <c r="O22" t="n">
-        <v>493.5614253355277</v>
+        <v>493.5614253355279</v>
       </c>
       <c r="P22" t="n">
         <v>410.6173184370264</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.3917871228437</v>
+        <v>63.93755968376263</v>
       </c>
       <c r="R22" t="n">
-        <v>0.9538174862894735</v>
+        <v>0.9538174862894664</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.94047470242302</v>
+        <v>41.94047470242301</v>
       </c>
       <c r="J23" t="n">
         <v>532.8920034689003</v>
@@ -36363,7 +36363,7 @@
         <v>982.5218677282655</v>
       </c>
       <c r="L23" t="n">
-        <v>981.2788073618512</v>
+        <v>173.36453474277</v>
       </c>
       <c r="M23" t="n">
         <v>192.9014486710166</v>
@@ -36372,7 +36372,7 @@
         <v>196.0227957827692</v>
       </c>
       <c r="O23" t="n">
-        <v>185.0987675056058</v>
+        <v>993.013040124687</v>
       </c>
       <c r="P23" t="n">
         <v>994.6541569005531</v>
@@ -36445,10 +36445,10 @@
         <v>127.6259264403914</v>
       </c>
       <c r="M24" t="n">
-        <v>148.9334364298841</v>
+        <v>148.933436429884</v>
       </c>
       <c r="N24" t="n">
-        <v>152.8752613269119</v>
+        <v>152.8752613269118</v>
       </c>
       <c r="O24" t="n">
         <v>139.8509975075631</v>
@@ -36457,7 +36457,7 @@
         <v>112.2427549815525</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.8218107862078</v>
+        <v>298.8218107862081</v>
       </c>
       <c r="R24" t="n">
         <v>154.8510918314255</v>
@@ -36539,7 +36539,7 @@
         <v>151.3917871228437</v>
       </c>
       <c r="R25" t="n">
-        <v>0.9538174862894735</v>
+        <v>0.9538174862894664</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.94047470242302</v>
+        <v>41.94047470242301</v>
       </c>
       <c r="J26" t="n">
-        <v>532.8920034689003</v>
+        <v>93.24080402150841</v>
       </c>
       <c r="K26" t="n">
-        <v>982.5218677282654</v>
+        <v>982.5218677282653</v>
       </c>
       <c r="L26" t="n">
-        <v>254.1161292753168</v>
+        <v>173.3645347427703</v>
       </c>
       <c r="M26" t="n">
         <v>192.9014486710166</v>
       </c>
       <c r="N26" t="n">
-        <v>196.0227957827692</v>
+        <v>369.9295718618384</v>
       </c>
       <c r="O26" t="n">
-        <v>185.0987675056058</v>
+        <v>1083.613761122227</v>
       </c>
       <c r="P26" t="n">
         <v>994.6541569005531</v>
       </c>
       <c r="Q26" t="n">
-        <v>670.653510837361</v>
+        <v>118.6345351216091</v>
       </c>
       <c r="R26" t="n">
         <v>239.8715154299398</v>
@@ -36676,16 +36676,16 @@
         <v>383.3702759968187</v>
       </c>
       <c r="K27" t="n">
-        <v>318.7062420685985</v>
+        <v>94.91574050612837</v>
       </c>
       <c r="L27" t="n">
         <v>127.6259264403914</v>
       </c>
       <c r="M27" t="n">
-        <v>148.9334364298841</v>
+        <v>148.933436429884</v>
       </c>
       <c r="N27" t="n">
-        <v>152.8752613269119</v>
+        <v>152.8752613269118</v>
       </c>
       <c r="O27" t="n">
         <v>139.8509975075631</v>
@@ -36694,7 +36694,7 @@
         <v>112.2427549815525</v>
       </c>
       <c r="Q27" t="n">
-        <v>75.03130922373794</v>
+        <v>298.8218107862083</v>
       </c>
       <c r="R27" t="n">
         <v>154.8510918314255</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.83998601639971</v>
+        <v>34.83998601639969</v>
       </c>
       <c r="K28" t="n">
-        <v>334.7865919418454</v>
+        <v>334.7865919418452</v>
       </c>
       <c r="L28" t="n">
-        <v>495.6980958496515</v>
+        <v>495.6980958496514</v>
       </c>
       <c r="M28" t="n">
-        <v>541.3715988687095</v>
+        <v>541.3715988687093</v>
       </c>
       <c r="N28" t="n">
         <v>522.1357956477359</v>
       </c>
       <c r="O28" t="n">
-        <v>493.5614253355275</v>
+        <v>493.5614253355279</v>
       </c>
       <c r="P28" t="n">
         <v>410.6173184370264</v>
@@ -36776,7 +36776,7 @@
         <v>151.3917871228437</v>
       </c>
       <c r="R28" t="n">
-        <v>0.9538174862894735</v>
+        <v>0.9538174862894664</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.94047470242302</v>
+        <v>41.94047470242301</v>
       </c>
       <c r="J29" t="n">
-        <v>93.24080402150844</v>
+        <v>93.24080402150841</v>
       </c>
       <c r="K29" t="n">
-        <v>139.7437950432372</v>
+        <v>982.5218677282653</v>
       </c>
       <c r="L29" t="n">
-        <v>638.0304077911146</v>
+        <v>1083.613761122227</v>
       </c>
       <c r="M29" t="n">
-        <v>192.9014486710165</v>
+        <v>192.9014486710166</v>
       </c>
       <c r="N29" t="n">
-        <v>196.0227957827692</v>
+        <v>1083.613761122227</v>
       </c>
       <c r="O29" t="n">
-        <v>1083.613761122227</v>
+        <v>467.2196783979912</v>
       </c>
       <c r="P29" t="n">
-        <v>994.6541569005531</v>
+        <v>157.977515654698</v>
       </c>
       <c r="Q29" t="n">
-        <v>670.6535108373614</v>
+        <v>118.6345351216087</v>
       </c>
       <c r="R29" t="n">
-        <v>239.8715154299407</v>
+        <v>69.00882376018581</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.23762291802994</v>
+        <v>46.56456550435075</v>
       </c>
       <c r="J30" t="n">
-        <v>55.53358411175579</v>
+        <v>383.3702759968187</v>
       </c>
       <c r="K30" t="n">
-        <v>94.91574050612843</v>
+        <v>94.91574050612837</v>
       </c>
       <c r="L30" t="n">
         <v>127.6259264403914</v>
       </c>
       <c r="M30" t="n">
-        <v>845.243913973172</v>
+        <v>148.933436429884</v>
       </c>
       <c r="N30" t="n">
-        <v>152.8752613269119</v>
+        <v>152.8752613269118</v>
       </c>
       <c r="O30" t="n">
         <v>139.8509975075631</v>
@@ -36931,10 +36931,10 @@
         <v>112.2427549815525</v>
       </c>
       <c r="Q30" t="n">
-        <v>75.03130922373794</v>
+        <v>298.8218107862083</v>
       </c>
       <c r="R30" t="n">
-        <v>36.49475032199143</v>
+        <v>154.8510918314255</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>34.83998601639971</v>
+        <v>34.83998601639969</v>
       </c>
       <c r="K31" t="n">
-        <v>334.7865919418454</v>
+        <v>334.7865919418452</v>
       </c>
       <c r="L31" t="n">
-        <v>495.6980958496515</v>
+        <v>495.6980958496514</v>
       </c>
       <c r="M31" t="n">
-        <v>541.3715988687095</v>
+        <v>541.3715988687093</v>
       </c>
       <c r="N31" t="n">
         <v>522.1357956477359</v>
       </c>
       <c r="O31" t="n">
-        <v>493.5614253355275</v>
+        <v>493.5614253355279</v>
       </c>
       <c r="P31" t="n">
         <v>410.6173184370264</v>
@@ -37013,7 +37013,7 @@
         <v>151.3917871228437</v>
       </c>
       <c r="R31" t="n">
-        <v>0.9538174862894735</v>
+        <v>0.9538174862894664</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,13 +37065,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.94047470242302</v>
+        <v>41.94047470242301</v>
       </c>
       <c r="J32" t="n">
-        <v>93.24080402150844</v>
+        <v>156.5647834779578</v>
       </c>
       <c r="K32" t="n">
-        <v>139.7437950432372</v>
+        <v>139.7437950432371</v>
       </c>
       <c r="L32" t="n">
         <v>1083.613761122227</v>
@@ -37083,16 +37083,16 @@
         <v>1083.613761122227</v>
       </c>
       <c r="O32" t="n">
-        <v>419.285438631809</v>
+        <v>185.0987675056058</v>
       </c>
       <c r="P32" t="n">
         <v>157.977515654698</v>
       </c>
       <c r="Q32" t="n">
-        <v>118.6345351216087</v>
+        <v>118.6345351216091</v>
       </c>
       <c r="R32" t="n">
-        <v>69.00882376018581</v>
+        <v>239.8715154299398</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.23762291802996</v>
+        <v>20.23762291802994</v>
       </c>
       <c r="J33" t="n">
-        <v>205.643113541837</v>
+        <v>87.28677203240194</v>
       </c>
       <c r="K33" t="n">
-        <v>94.91574050612826</v>
+        <v>94.91574050612843</v>
       </c>
       <c r="L33" t="n">
-        <v>127.6259264403916</v>
+        <v>127.6259264403914</v>
       </c>
       <c r="M33" t="n">
-        <v>148.9334364298838</v>
+        <v>148.933436429884</v>
       </c>
       <c r="N33" t="n">
-        <v>152.8752613269116</v>
+        <v>152.8752613269118</v>
       </c>
       <c r="O33" t="n">
         <v>139.8509975075631</v>
       </c>
       <c r="P33" t="n">
-        <v>112.2427549815525</v>
+        <v>112.2427549815526</v>
       </c>
       <c r="Q33" t="n">
-        <v>621.2322573369456</v>
+        <v>621.2322573369457</v>
       </c>
       <c r="R33" t="n">
-        <v>36.49475032199098</v>
+        <v>154.8510918314255</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>34.83998601639973</v>
+        <v>122.2942134554804</v>
       </c>
       <c r="K34" t="n">
         <v>334.7865919418452</v>
       </c>
       <c r="L34" t="n">
-        <v>495.6980958496513</v>
+        <v>495.6980958496515</v>
       </c>
       <c r="M34" t="n">
-        <v>541.3715988687095</v>
+        <v>541.3715988687093</v>
       </c>
       <c r="N34" t="n">
-        <v>522.1357956477359</v>
+        <v>522.1357956477357</v>
       </c>
       <c r="O34" t="n">
         <v>493.5614253355279</v>
@@ -37247,10 +37247,10 @@
         <v>410.6173184370264</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.3917871228441</v>
+        <v>63.93755968376308</v>
       </c>
       <c r="R34" t="n">
-        <v>0.9538174862894735</v>
+        <v>0.9538174862894664</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.94047470242302</v>
+        <v>41.94047470242301</v>
       </c>
       <c r="J35" t="n">
-        <v>532.8920034689003</v>
+        <v>93.24080402150841</v>
       </c>
       <c r="K35" t="n">
-        <v>139.7437950432372</v>
+        <v>139.7437950432371</v>
       </c>
       <c r="L35" t="n">
         <v>173.3645347427702</v>
@@ -37317,13 +37317,13 @@
         <v>192.9014486710165</v>
       </c>
       <c r="N35" t="n">
-        <v>196.0227957827692</v>
+        <v>196.0227957827691</v>
       </c>
       <c r="O35" t="n">
-        <v>185.098767505606</v>
+        <v>483.662728153838</v>
       </c>
       <c r="P35" t="n">
-        <v>612.8675705220055</v>
+        <v>753.9548093211656</v>
       </c>
       <c r="Q35" t="n">
         <v>670.653510837361</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>46.56456550435087</v>
+        <v>46.56456550435075</v>
       </c>
       <c r="J36" t="n">
         <v>383.3702759968187</v>
       </c>
       <c r="K36" t="n">
-        <v>94.91574050612849</v>
+        <v>94.91574050612843</v>
       </c>
       <c r="L36" t="n">
         <v>127.6259264403914</v>
       </c>
       <c r="M36" t="n">
-        <v>148.9334364298841</v>
+        <v>148.933436429884</v>
       </c>
       <c r="N36" t="n">
-        <v>152.8752613269116</v>
+        <v>152.8752613269118</v>
       </c>
       <c r="O36" t="n">
         <v>139.8509975075631</v>
@@ -37405,7 +37405,7 @@
         <v>112.2427549815525</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.8218107862076</v>
+        <v>298.8218107862081</v>
       </c>
       <c r="R36" t="n">
         <v>154.8510918314255</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>34.8399860163997</v>
+        <v>122.2942134554803</v>
       </c>
       <c r="K37" t="n">
         <v>334.7865919418453</v>
@@ -37472,22 +37472,22 @@
         <v>495.6980958496515</v>
       </c>
       <c r="M37" t="n">
-        <v>541.3715988687094</v>
+        <v>541.3715988687093</v>
       </c>
       <c r="N37" t="n">
-        <v>522.1357956477359</v>
+        <v>522.1357956477361</v>
       </c>
       <c r="O37" t="n">
-        <v>493.5614253355277</v>
+        <v>493.5614253355279</v>
       </c>
       <c r="P37" t="n">
-        <v>410.6173184370268</v>
+        <v>410.6173184370264</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.3917871228432</v>
+        <v>63.93755968376263</v>
       </c>
       <c r="R37" t="n">
-        <v>0.9538174862894735</v>
+        <v>0.9538174862894664</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.94047470242302</v>
+        <v>41.94047470242301</v>
       </c>
       <c r="J38" t="n">
         <v>532.8920034689003</v>
       </c>
       <c r="K38" t="n">
-        <v>550.6755319598287</v>
+        <v>594.6338499105436</v>
       </c>
       <c r="L38" t="n">
-        <v>173.3645347427703</v>
+        <v>173.36453474277</v>
       </c>
       <c r="M38" t="n">
         <v>192.9014486710166</v>
@@ -37560,10 +37560,10 @@
         <v>185.098767505606</v>
       </c>
       <c r="P38" t="n">
-        <v>753.9548093211656</v>
+        <v>157.9775156546982</v>
       </c>
       <c r="Q38" t="n">
-        <v>118.6345351216091</v>
+        <v>670.6535108373614</v>
       </c>
       <c r="R38" t="n">
         <v>239.8715154299402</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>46.56456550435087</v>
+        <v>46.56456550435074</v>
       </c>
       <c r="J39" t="n">
         <v>383.3702759968187</v>
       </c>
       <c r="K39" t="n">
-        <v>94.91574050612849</v>
+        <v>94.91574050612843</v>
       </c>
       <c r="L39" t="n">
         <v>127.6259264403914</v>
       </c>
       <c r="M39" t="n">
-        <v>148.9334364298841</v>
+        <v>148.933436429884</v>
       </c>
       <c r="N39" t="n">
-        <v>152.8752613269116</v>
+        <v>152.8752613269118</v>
       </c>
       <c r="O39" t="n">
         <v>139.8509975075631</v>
@@ -37642,7 +37642,7 @@
         <v>112.2427549815525</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.8218107862076</v>
+        <v>298.8218107862081</v>
       </c>
       <c r="R39" t="n">
         <v>154.8510918314255</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>34.8399860163997</v>
+        <v>34.83998601639969</v>
       </c>
       <c r="K40" t="n">
-        <v>275.0225608588424</v>
+        <v>334.7865919418452</v>
       </c>
       <c r="L40" t="n">
-        <v>495.6980958496515</v>
+        <v>495.6980958496514</v>
       </c>
       <c r="M40" t="n">
-        <v>541.3715988687094</v>
+        <v>541.3715988687093</v>
       </c>
       <c r="N40" t="n">
         <v>522.1357956477359</v>
       </c>
       <c r="O40" t="n">
-        <v>493.5614253355277</v>
+        <v>493.5614253355275</v>
       </c>
       <c r="P40" t="n">
         <v>410.6173184370264</v>
       </c>
       <c r="Q40" t="n">
-        <v>211.1558182058466</v>
+        <v>151.3917871228441</v>
       </c>
       <c r="R40" t="n">
-        <v>0.9538174862894735</v>
+        <v>0.9538174862894664</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,19 +37776,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.94047470242302</v>
+        <v>41.94047470242301</v>
       </c>
       <c r="J41" t="n">
         <v>532.8920034689003</v>
       </c>
       <c r="K41" t="n">
-        <v>139.7437950432372</v>
+        <v>139.7437950432371</v>
       </c>
       <c r="L41" t="n">
         <v>173.3645347427702</v>
       </c>
       <c r="M41" t="n">
-        <v>192.9014486710165</v>
+        <v>192.9014486710166</v>
       </c>
       <c r="N41" t="n">
         <v>196.0227957827692</v>
@@ -37797,7 +37797,7 @@
         <v>185.098767505606</v>
       </c>
       <c r="P41" t="n">
-        <v>612.8675705220051</v>
+        <v>612.8675705220046</v>
       </c>
       <c r="Q41" t="n">
         <v>670.6535108373614</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>46.56456550435087</v>
+        <v>46.56456550435074</v>
       </c>
       <c r="J42" t="n">
-        <v>383.3702759968187</v>
+        <v>55.53358411175577</v>
       </c>
       <c r="K42" t="n">
-        <v>94.91574050612849</v>
+        <v>100.3419858404536</v>
       </c>
       <c r="L42" t="n">
         <v>127.6259264403914</v>
       </c>
       <c r="M42" t="n">
-        <v>148.9334364298841</v>
+        <v>148.933436429884</v>
       </c>
       <c r="N42" t="n">
-        <v>152.8752613269116</v>
+        <v>152.8752613269118</v>
       </c>
       <c r="O42" t="n">
         <v>139.8509975075631</v>
       </c>
       <c r="P42" t="n">
-        <v>112.2427549815525</v>
+        <v>112.2427549815526</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.8218107862076</v>
+        <v>621.2322573369457</v>
       </c>
       <c r="R42" t="n">
         <v>154.8510918314255</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>34.8399860163997</v>
+        <v>122.2942134554803</v>
       </c>
       <c r="K43" t="n">
         <v>334.7865919418453</v>
@@ -37946,22 +37946,22 @@
         <v>495.6980958496515</v>
       </c>
       <c r="M43" t="n">
-        <v>541.3715988687094</v>
+        <v>541.3715988687093</v>
       </c>
       <c r="N43" t="n">
-        <v>522.1357956477359</v>
+        <v>522.1357956477361</v>
       </c>
       <c r="O43" t="n">
-        <v>493.5614253355277</v>
+        <v>493.5614253355279</v>
       </c>
       <c r="P43" t="n">
         <v>410.6173184370264</v>
       </c>
       <c r="Q43" t="n">
-        <v>151.3917871228437</v>
+        <v>63.93755968376263</v>
       </c>
       <c r="R43" t="n">
-        <v>0.9538174862894735</v>
+        <v>0.9538174862894664</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.94047470242302</v>
+        <v>41.94047470242301</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8920034689003</v>
+        <v>391.8047646697397</v>
       </c>
       <c r="K44" t="n">
-        <v>139.7437950432372</v>
+        <v>139.7437950432371</v>
       </c>
       <c r="L44" t="n">
         <v>173.3645347427702</v>
@@ -38028,13 +38028,13 @@
         <v>192.9014486710165</v>
       </c>
       <c r="N44" t="n">
-        <v>196.0227957827692</v>
+        <v>196.0227957827691</v>
       </c>
       <c r="O44" t="n">
-        <v>639.9888223729129</v>
+        <v>185.098767505606</v>
       </c>
       <c r="P44" t="n">
-        <v>157.9775156546982</v>
+        <v>753.9548093211654</v>
       </c>
       <c r="Q44" t="n">
         <v>670.6535108373614</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>46.56456550435076</v>
+        <v>46.56456550435074</v>
       </c>
       <c r="J45" t="n">
-        <v>383.3702759968188</v>
+        <v>383.3702759968187</v>
       </c>
       <c r="K45" t="n">
-        <v>94.91574050612849</v>
+        <v>318.7062420685987</v>
       </c>
       <c r="L45" t="n">
         <v>127.6259264403914</v>
@@ -38107,16 +38107,16 @@
         <v>148.933436429884</v>
       </c>
       <c r="N45" t="n">
-        <v>152.8752613269118</v>
+        <v>152.8752613269116</v>
       </c>
       <c r="O45" t="n">
-        <v>139.850997507563</v>
+        <v>139.8509975075631</v>
       </c>
       <c r="P45" t="n">
         <v>112.2427549815525</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.8218107862081</v>
+        <v>75.03130922373794</v>
       </c>
       <c r="R45" t="n">
         <v>154.8510918314255</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>34.8399860163997</v>
+        <v>122.2942134554803</v>
       </c>
       <c r="K46" t="n">
         <v>334.7865919418453</v>
@@ -38183,22 +38183,22 @@
         <v>495.6980958496515</v>
       </c>
       <c r="M46" t="n">
-        <v>541.3715988687094</v>
+        <v>541.3715988687093</v>
       </c>
       <c r="N46" t="n">
-        <v>522.1357956477359</v>
+        <v>522.1357956477361</v>
       </c>
       <c r="O46" t="n">
-        <v>493.5614253355277</v>
+        <v>493.5614253355279</v>
       </c>
       <c r="P46" t="n">
-        <v>410.6173184370268</v>
+        <v>410.6173184370264</v>
       </c>
       <c r="Q46" t="n">
-        <v>151.3917871228432</v>
+        <v>63.93755968376263</v>
       </c>
       <c r="R46" t="n">
-        <v>0.9538174862894735</v>
+        <v>0.9538174862894664</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
